--- a/evaluation/results/questionnaire.xlsx
+++ b/evaluation/results/questionnaire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="198" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="questionnaire" sheetId="1" state="visible" r:id="rId2"/>
@@ -4088,7 +4088,7 @@
     <t>Disney</t>
   </si>
   <si>
-    <t>Pixal</t>
+    <t>Pixar</t>
   </si>
   <si>
     <t>DreamWorks</t>
@@ -4916,25 +4916,25 @@
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4946,14 +4946,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF99"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="0099FF99"/>
+        <bgColor rgb="00CCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -4966,28 +4966,28 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+      <left style="medium"/>
       <right/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
@@ -4995,30 +4995,30 @@
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="thin"/>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
-      <right style="thin"/>
+      <right style="medium"/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -5048,78 +5048,24 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -5131,62 +5077,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF99"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="0099FF99"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5199,26 +5145,25 @@
   </sheetPr>
   <dimension ref="A1:E907"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A861" view="normal" windowProtection="false" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100">
-      <selection activeCell="G887" activeCellId="0" pane="topLeft" sqref="G887"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A685" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A696" activeCellId="0" pane="topLeft" sqref="A696"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.8509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="22.9176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.3882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5764705882353"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="2" t="n">
         <v>1689442184</v>
       </c>
@@ -5232,7 +5177,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5249,7 +5194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="6">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -5283,7 +5228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="7">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -5300,7 +5245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -5309,7 +5254,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genre")</f>
         <v>http://dbpedia.org/property/genre</v>
@@ -5324,7 +5269,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/genre")</f>
         <v>http://dbpedia.org/ontology/genre</v>
@@ -5339,7 +5284,7 @@
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/type")</f>
         <v>http://dbpedia.org/property/type</v>
@@ -5354,7 +5299,7 @@
       </c>
       <c r="E11" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genres")</f>
         <v>http://dbpedia.org/property/genres</v>
@@ -5369,7 +5314,7 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="13">
       <c r="A13" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genere")</f>
         <v>http://dbpedia.org/property/genere</v>
@@ -5384,7 +5329,7 @@
       </c>
       <c r="E13" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genre(s)_")</f>
         <v>http://dbpedia.org/property/genre(s)_</v>
@@ -5399,7 +5344,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="2" t="n">
         <v>1744816435</v>
       </c>
@@ -5413,7 +5358,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="6" t="n">
         <v>1948</v>
       </c>
@@ -5430,7 +5375,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="6" t="n">
         <v>1953</v>
       </c>
@@ -5447,7 +5392,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="6" t="n">
         <v>1958</v>
       </c>
@@ -5464,7 +5409,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="6" t="n">
         <v>1963</v>
       </c>
@@ -5481,7 +5426,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="6" t="n">
         <v>1968</v>
       </c>
@@ -5498,7 +5443,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="6" t="n">
         <v>1973</v>
       </c>
@@ -5515,7 +5460,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="6" t="n">
         <v>1978</v>
       </c>
@@ -5532,7 +5477,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="6" t="n">
         <v>1983</v>
       </c>
@@ -5549,7 +5494,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="6" t="n">
         <v>1988</v>
       </c>
@@ -5566,7 +5511,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="6" t="n">
         <v>1993</v>
       </c>
@@ -5583,7 +5528,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="6" t="n">
         <v>1998</v>
       </c>
@@ -5600,7 +5545,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="6" t="n">
         <v>2003</v>
       </c>
@@ -5617,7 +5562,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="6" t="n">
         <v>2008</v>
       </c>
@@ -5634,7 +5579,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year1start")</f>
         <v>http://dbpedia.org/property/year1start</v>
@@ -5649,7 +5594,7 @@
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -5664,7 +5609,7 @@
       </c>
       <c r="E31" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="32">
       <c r="A32" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/prevYear")</f>
         <v>http://dbpedia.org/property/prevYear</v>
@@ -5679,7 +5624,7 @@
       </c>
       <c r="E32" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="33">
       <c r="A33" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/finalyear")</f>
         <v>http://dbpedia.org/property/finalyear</v>
@@ -5694,7 +5639,7 @@
       </c>
       <c r="E33" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="34">
       <c r="A34" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/dateOfDeath")</f>
         <v>http://dbpedia.org/property/dateOfDeath</v>
@@ -5709,7 +5654,7 @@
       </c>
       <c r="E34" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="35">
       <c r="A35" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/careerStart")</f>
         <v>http://dbpedia.org/property/careerStart</v>
@@ -5724,7 +5669,7 @@
       </c>
       <c r="E35" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="36">
       <c r="A36" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsEndDate")</f>
         <v>http://dbpedia.org/ontology/activeYearsEndDate</v>
@@ -5739,7 +5684,7 @@
       </c>
       <c r="E36" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="37">
       <c r="A37" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/deathDate")</f>
         <v>http://dbpedia.org/property/deathDate</v>
@@ -5754,7 +5699,7 @@
       </c>
       <c r="E37" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="38">
       <c r="A38" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/deathDate")</f>
         <v>http://dbpedia.org/ontology/deathDate</v>
@@ -5769,7 +5714,7 @@
       </c>
       <c r="E38" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="39">
       <c r="A39" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/startyear")</f>
         <v>http://dbpedia.org/property/startyear</v>
@@ -5784,7 +5729,7 @@
       </c>
       <c r="E39" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="40">
       <c r="A40" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/draftYear")</f>
         <v>http://dbpedia.org/ontology/draftYear</v>
@@ -5799,7 +5744,7 @@
       </c>
       <c r="E40" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/year")</f>
         <v>http://dbpedia.org/ontology/year</v>
@@ -5814,7 +5759,7 @@
       </c>
       <c r="E41" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="42">
       <c r="A42" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/endyear")</f>
         <v>http://dbpedia.org/property/endyear</v>
@@ -5829,7 +5774,7 @@
       </c>
       <c r="E42" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/years")</f>
         <v>http://dbpedia.org/property/years</v>
@@ -5844,7 +5789,7 @@
       </c>
       <c r="E43" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="44">
       <c r="A44" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/careerEnd")</f>
         <v>http://dbpedia.org/property/careerEnd</v>
@@ -5859,7 +5804,7 @@
       </c>
       <c r="E44" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="45">
       <c r="A45" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsStartYear")</f>
         <v>http://dbpedia.org/ontology/activeYearsStartYear</v>
@@ -5874,7 +5819,7 @@
       </c>
       <c r="E45" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="46">
       <c r="A46" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsStartDate")</f>
         <v>http://dbpedia.org/ontology/activeYearsStartDate</v>
@@ -5889,7 +5834,7 @@
       </c>
       <c r="E46" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="47">
       <c r="A47" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/turnedpro")</f>
         <v>http://dbpedia.org/property/turnedpro</v>
@@ -5904,7 +5849,7 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="48">
       <c r="A48" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftyear")</f>
         <v>http://dbpedia.org/property/draftyear</v>
@@ -5919,7 +5864,7 @@
       </c>
       <c r="E48" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="49">
       <c r="A49" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/deathYear")</f>
         <v>http://dbpedia.org/ontology/deathYear</v>
@@ -5934,7 +5879,7 @@
       </c>
       <c r="E49" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="50">
       <c r="A50" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsEndYear")</f>
         <v>http://dbpedia.org/ontology/activeYearsEndYear</v>
@@ -5949,7 +5894,7 @@
       </c>
       <c r="E50" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="51">
       <c r="A51" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftYear")</f>
         <v>http://dbpedia.org/property/draftYear</v>
@@ -5964,7 +5909,7 @@
       </c>
       <c r="E51" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="52">
       <c r="A52" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debutyear")</f>
         <v>http://dbpedia.org/property/debutyear</v>
@@ -5979,7 +5924,7 @@
       </c>
       <c r="E52" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="53">
       <c r="A53" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debutdate")</f>
         <v>http://dbpedia.org/property/debutdate</v>
@@ -5994,7 +5939,7 @@
       </c>
       <c r="E53" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="54">
       <c r="A54" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftedyear")</f>
         <v>http://dbpedia.org/property/draftedyear</v>
@@ -6009,7 +5954,7 @@
       </c>
       <c r="E54" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/retired")</f>
         <v>http://dbpedia.org/property/retired</v>
@@ -6024,7 +5969,7 @@
       </c>
       <c r="E55" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="56">
       <c r="A56" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/birthDate")</f>
         <v>http://dbpedia.org/ontology/birthDate</v>
@@ -6039,7 +5984,7 @@
       </c>
       <c r="E56" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="57">
       <c r="A57" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/hallOfFame")</f>
         <v>http://dbpedia.org/ontology/hallOfFame</v>
@@ -6054,7 +5999,7 @@
       </c>
       <c r="E57" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="58">
       <c r="A58" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/dateOfBirth")</f>
         <v>http://dbpedia.org/property/dateOfBirth</v>
@@ -6069,7 +6014,7 @@
       </c>
       <c r="E58" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="59">
       <c r="A59" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/halloffame")</f>
         <v>http://dbpedia.org/property/halloffame</v>
@@ -6084,7 +6029,7 @@
       </c>
       <c r="E59" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="60">
       <c r="A60" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/endYear")</f>
         <v>http://dbpedia.org/property/endYear</v>
@@ -6099,7 +6044,7 @@
       </c>
       <c r="E60" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="61">
       <c r="A61" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/birthYear")</f>
         <v>http://dbpedia.org/ontology/birthYear</v>
@@ -6114,7 +6059,7 @@
       </c>
       <c r="E61" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debut")</f>
         <v>http://dbpedia.org/property/debut</v>
@@ -6129,7 +6074,7 @@
       </c>
       <c r="E62" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="63">
       <c r="A63" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/worldChampionTitleYear")</f>
         <v>http://dbpedia.org/ontology/worldChampionTitleYear</v>
@@ -6144,7 +6089,7 @@
       </c>
       <c r="E63" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draft")</f>
         <v>http://dbpedia.org/property/draft</v>
@@ -6159,7 +6104,7 @@
       </c>
       <c r="E64" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/draft")</f>
         <v>http://dbpedia.org/ontology/draft</v>
@@ -6174,7 +6119,7 @@
       </c>
       <c r="E65" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="66">
       <c r="A66" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftpick")</f>
         <v>http://dbpedia.org/property/draftpick</v>
@@ -6189,7 +6134,7 @@
       </c>
       <c r="E66" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="67">
       <c r="A67" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/worldchampion")</f>
         <v>http://dbpedia.org/property/worldchampion</v>
@@ -6204,7 +6149,7 @@
       </c>
       <c r="E67" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/debut")</f>
         <v>http://dbpedia.org/ontology/debut</v>
@@ -6219,7 +6164,7 @@
       </c>
       <c r="E68" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="69">
       <c r="A69" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstseason")</f>
         <v>http://dbpedia.org/property/firstseason</v>
@@ -6234,7 +6179,7 @@
       </c>
       <c r="E69" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="70">
       <c r="A70" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/turnedPro")</f>
         <v>http://dbpedia.org/property/turnedPro</v>
@@ -6249,7 +6194,7 @@
       </c>
       <c r="E70" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="71">
       <c r="A71" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debutDate")</f>
         <v>http://dbpedia.org/property/debutDate</v>
@@ -6264,7 +6209,7 @@
       </c>
       <c r="E71" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="72">
       <c r="A72" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debutYear")</f>
         <v>http://dbpedia.org/property/debutYear</v>
@@ -6279,7 +6224,7 @@
       </c>
       <c r="E72" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="2" t="n">
         <v>268043830</v>
       </c>
@@ -6293,7 +6238,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="6" t="s">
         <v>68</v>
       </c>
@@ -6310,7 +6255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="76">
       <c r="A76" s="6" t="s">
         <v>73</v>
       </c>
@@ -6327,7 +6272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="6" t="s">
         <v>78</v>
       </c>
@@ -6344,7 +6289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="6" t="s">
         <v>83</v>
       </c>
@@ -6361,7 +6306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="6" t="s">
         <v>88</v>
       </c>
@@ -6378,7 +6323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/regions")</f>
         <v>http://dbpedia.org/property/regions</v>
@@ -6393,7 +6338,7 @@
       </c>
       <c r="E80" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="81">
       <c r="A81" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/wineRegion")</f>
         <v>http://dbpedia.org/ontology/wineRegion</v>
@@ -6408,7 +6353,7 @@
       </c>
       <c r="E81" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origin")</f>
         <v>http://dbpedia.org/property/origin</v>
@@ -6423,7 +6368,7 @@
       </c>
       <c r="E82" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/origin")</f>
         <v>http://dbpedia.org/ontology/origin</v>
@@ -6438,7 +6383,7 @@
       </c>
       <c r="E83" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -6453,7 +6398,7 @@
       </c>
       <c r="E84" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -6468,7 +6413,7 @@
       </c>
       <c r="E85" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/location")</f>
         <v>http://dbpedia.org/ontology/location</v>
@@ -6483,7 +6428,7 @@
       </c>
       <c r="E86" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/location")</f>
         <v>http://dbpedia.org/property/location</v>
@@ -6498,7 +6443,7 @@
       </c>
       <c r="E87" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="88">
       <c r="A88" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/locationCountry")</f>
         <v>http://dbpedia.org/property/locationCountry</v>
@@ -6513,7 +6458,7 @@
       </c>
       <c r="E88" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="89">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="89">
       <c r="A89" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/sourceCountry")</f>
         <v>http://dbpedia.org/ontology/sourceCountry</v>
@@ -6528,7 +6473,7 @@
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="2" t="n">
         <v>1659846037</v>
       </c>
@@ -6542,7 +6487,7 @@
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="6" t="n">
         <v>2011</v>
       </c>
@@ -6559,7 +6504,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="6" t="n">
         <v>2013</v>
       </c>
@@ -6576,7 +6521,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="6" t="n">
         <v>2003</v>
       </c>
@@ -6593,7 +6538,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="6" t="n">
         <v>1998</v>
       </c>
@@ -6610,7 +6555,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="6" t="n">
         <v>1993</v>
       </c>
@@ -6625,7 +6570,7 @@
       </c>
       <c r="E96" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
       <c r="A97" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -6640,7 +6585,7 @@
       </c>
       <c r="E97" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="98">
       <c r="A98" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/wineYears")</f>
         <v>http://dbpedia.org/property/wineYears</v>
@@ -6655,7 +6600,7 @@
       </c>
       <c r="E98" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
       <c r="A99" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/date")</f>
         <v>http://dbpedia.org/property/date</v>
@@ -6670,7 +6615,7 @@
       </c>
       <c r="E99" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="100">
       <c r="A100" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstVintage")</f>
         <v>http://dbpedia.org/property/firstVintage</v>
@@ -6685,7 +6630,7 @@
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
       <c r="A102" s="2" t="n">
         <v>702159889</v>
       </c>
@@ -6699,7 +6644,7 @@
       <c r="D102" s="4"/>
       <c r="E102" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="103">
       <c r="A103" s="6" t="s">
         <v>103</v>
       </c>
@@ -6716,7 +6661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="104">
       <c r="A104" s="6" t="s">
         <v>108</v>
       </c>
@@ -6733,7 +6678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="105">
       <c r="A105" s="6" t="s">
         <v>113</v>
       </c>
@@ -6750,7 +6695,7 @@
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="106">
       <c r="A106" s="6" t="s">
         <v>118</v>
       </c>
@@ -6767,7 +6712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="107">
       <c r="A107" s="6" t="s">
         <v>123</v>
       </c>
@@ -6784,7 +6729,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="108">
       <c r="A108" s="6" t="s">
         <v>128</v>
       </c>
@@ -6801,7 +6746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="109">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="109">
       <c r="A109" s="6" t="s">
         <v>133</v>
       </c>
@@ -6818,7 +6763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="110">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="110">
       <c r="A110" s="6" t="s">
         <v>138</v>
       </c>
@@ -6835,7 +6780,7 @@
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="111">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="111">
       <c r="A111" s="6" t="s">
         <v>143</v>
       </c>
@@ -6852,7 +6797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="112">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="112">
       <c r="A112" s="6" t="s">
         <v>148</v>
       </c>
@@ -6869,7 +6814,7 @@
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="113">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="113">
       <c r="A113" s="6" t="s">
         <v>153</v>
       </c>
@@ -6886,7 +6831,7 @@
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="114">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="114">
       <c r="A114" s="6" t="s">
         <v>158</v>
       </c>
@@ -6903,7 +6848,7 @@
         <v>162</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="115">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="115">
       <c r="A115" s="6" t="s">
         <v>163</v>
       </c>
@@ -6920,7 +6865,7 @@
         <v>167</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="116">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="116">
       <c r="A116" s="6" t="s">
         <v>168</v>
       </c>
@@ -6937,7 +6882,7 @@
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="117">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="117">
       <c r="A117" s="6" t="s">
         <v>173</v>
       </c>
@@ -6954,7 +6899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="118">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="118">
       <c r="A118" s="6" t="s">
         <v>178</v>
       </c>
@@ -6971,7 +6916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="119">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="119">
       <c r="A119" s="6" t="s">
         <v>183</v>
       </c>
@@ -6988,7 +6933,7 @@
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="120">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="120">
       <c r="A120" s="6" t="s">
         <v>188</v>
       </c>
@@ -7005,7 +6950,7 @@
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="121">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="121">
       <c r="A121" s="6" t="s">
         <v>193</v>
       </c>
@@ -7022,7 +6967,7 @@
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="122">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="122">
       <c r="A122" s="6" t="s">
         <v>198</v>
       </c>
@@ -7039,7 +6984,7 @@
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="123">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="123">
       <c r="A123" s="6" t="s">
         <v>203</v>
       </c>
@@ -7056,7 +7001,7 @@
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="124">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="124">
       <c r="A124" s="6" t="s">
         <v>208</v>
       </c>
@@ -7073,7 +7018,7 @@
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="125">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="125">
       <c r="A125" s="6" t="s">
         <v>213</v>
       </c>
@@ -7090,7 +7035,7 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="126">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="126">
       <c r="A126" s="6" t="s">
         <v>218</v>
       </c>
@@ -7107,7 +7052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="127">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="127">
       <c r="A127" s="6" t="s">
         <v>223</v>
       </c>
@@ -7124,7 +7069,7 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="128">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="128">
       <c r="A128" s="6" t="s">
         <v>228</v>
       </c>
@@ -7141,7 +7086,7 @@
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="129">
       <c r="A129" s="6" t="s">
         <v>233</v>
       </c>
@@ -7158,7 +7103,7 @@
         <v>237</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="130">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="130">
       <c r="A130" s="6" t="s">
         <v>238</v>
       </c>
@@ -7175,7 +7120,7 @@
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="131">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="131">
       <c r="A131" s="6" t="s">
         <v>243</v>
       </c>
@@ -7192,7 +7137,7 @@
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="132">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="132">
       <c r="A132" s="6" t="s">
         <v>248</v>
       </c>
@@ -7209,7 +7154,7 @@
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="133">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="133">
       <c r="A133" s="6" t="s">
         <v>253</v>
       </c>
@@ -7226,7 +7171,7 @@
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="134">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="134">
       <c r="A134" s="6" t="s">
         <v>258</v>
       </c>
@@ -7243,7 +7188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="135">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="135">
       <c r="A135" s="6" t="s">
         <v>263</v>
       </c>
@@ -7260,7 +7205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="136">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="136">
       <c r="A136" s="6" t="s">
         <v>268</v>
       </c>
@@ -7277,7 +7222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="137">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="137">
       <c r="A137" s="6" t="s">
         <v>273</v>
       </c>
@@ -7294,7 +7239,7 @@
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="138">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="138">
       <c r="A138" s="6" t="s">
         <v>278</v>
       </c>
@@ -7311,7 +7256,7 @@
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="139">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="139">
       <c r="A139" s="6" t="s">
         <v>283</v>
       </c>
@@ -7328,7 +7273,7 @@
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="140">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="140">
       <c r="A140" s="6" t="s">
         <v>288</v>
       </c>
@@ -7345,7 +7290,7 @@
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="141">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="141">
       <c r="A141" s="6" t="s">
         <v>293</v>
       </c>
@@ -7362,7 +7307,7 @@
         <v>297</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="142">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="142">
       <c r="A142" s="6" t="s">
         <v>298</v>
       </c>
@@ -7379,7 +7324,7 @@
         <v>302</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="143">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="143">
       <c r="A143" s="6" t="s">
         <v>303</v>
       </c>
@@ -7396,7 +7341,7 @@
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="144">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="144">
       <c r="A144" s="6" t="s">
         <v>308</v>
       </c>
@@ -7413,7 +7358,7 @@
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="145">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="145">
       <c r="A145" s="6" t="s">
         <v>313</v>
       </c>
@@ -7430,7 +7375,7 @@
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="146">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="146">
       <c r="A146" s="6" t="s">
         <v>318</v>
       </c>
@@ -7447,7 +7392,7 @@
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="147">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="147">
       <c r="A147" s="6" t="s">
         <v>323</v>
       </c>
@@ -7464,7 +7409,7 @@
         <v>327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="148">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="148">
       <c r="A148" s="6" t="s">
         <v>328</v>
       </c>
@@ -7475,7 +7420,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="149">
       <c r="A149" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/grapes")</f>
         <v>http://dbpedia.org/property/grapes</v>
@@ -7490,7 +7435,7 @@
       </c>
       <c r="E149" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="150">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="150">
       <c r="A150" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/growingGrape")</f>
         <v>http://dbpedia.org/ontology/growingGrape</v>
@@ -7505,7 +7450,7 @@
       </c>
       <c r="E150" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="151">
       <c r="A151" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/varietals")</f>
         <v>http://dbpedia.org/property/varietals</v>
@@ -7520,7 +7465,7 @@
       </c>
       <c r="E151" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="152">
       <c r="A152" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/varietals")</f>
         <v>http://dbpedia.org/ontology/varietals</v>
@@ -7535,7 +7480,7 @@
       </c>
       <c r="E152" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="153">
       <c r="A153" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/varietal")</f>
         <v>http://dbpedia.org/property/varietal</v>
@@ -7550,7 +7495,7 @@
       </c>
       <c r="E153" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="154">
       <c r="A154" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pedigree")</f>
         <v>http://dbpedia.org/property/pedigree</v>
@@ -7565,7 +7510,7 @@
       </c>
       <c r="E154" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="156">
       <c r="A156" s="2" t="n">
         <v>753388668</v>
       </c>
@@ -7579,7 +7524,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="157">
       <c r="A157" s="6" t="s">
         <v>336</v>
       </c>
@@ -7596,7 +7541,7 @@
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="158">
       <c r="A158" s="6" t="s">
         <v>341</v>
       </c>
@@ -7613,7 +7558,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="159">
       <c r="A159" s="6" t="s">
         <v>346</v>
       </c>
@@ -7630,7 +7575,7 @@
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="160">
       <c r="A160" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genre")</f>
         <v>http://dbpedia.org/property/genre</v>
@@ -7645,7 +7590,7 @@
       </c>
       <c r="E160" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="161">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="161">
       <c r="A161" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/stylisticOrigins")</f>
         <v>http://dbpedia.org/property/stylisticOrigins</v>
@@ -7660,7 +7605,7 @@
       </c>
       <c r="E161" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="162">
       <c r="A162" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/genre")</f>
         <v>http://dbpedia.org/ontology/genre</v>
@@ -7675,7 +7620,7 @@
       </c>
       <c r="E162" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="163">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="163">
       <c r="A163" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/stylisticOrigin")</f>
         <v>http://dbpedia.org/ontology/stylisticOrigin</v>
@@ -7690,7 +7635,7 @@
       </c>
       <c r="E163" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="164">
       <c r="A164" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genres")</f>
         <v>http://dbpedia.org/property/genres</v>
@@ -7705,7 +7650,7 @@
       </c>
       <c r="E164" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="165">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="165">
       <c r="A165" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicSubgenre")</f>
         <v>http://dbpedia.org/ontology/musicSubgenre</v>
@@ -7720,7 +7665,7 @@
       </c>
       <c r="E165" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="166">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="166">
       <c r="A166" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/subgenres")</f>
         <v>http://dbpedia.org/property/subgenres</v>
@@ -7735,7 +7680,7 @@
       </c>
       <c r="E166" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="167">
       <c r="A167" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/style")</f>
         <v>http://dbpedia.org/property/style</v>
@@ -7750,7 +7695,7 @@
       </c>
       <c r="E167" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="168">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="168">
       <c r="A168" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicFusionGenre")</f>
         <v>http://dbpedia.org/ontology/musicFusionGenre</v>
@@ -7765,7 +7710,7 @@
       </c>
       <c r="E168" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="169">
       <c r="A169" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genre(s)_")</f>
         <v>http://dbpedia.org/property/genre(s)_</v>
@@ -7780,7 +7725,7 @@
       </c>
       <c r="E169" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="170">
       <c r="A170" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/type")</f>
         <v>http://dbpedia.org/ontology/type</v>
@@ -7795,7 +7740,7 @@
       </c>
       <c r="E170" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="171">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="171">
       <c r="A171" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/musicGenre")</f>
         <v>http://dbpedia.org/property/musicGenre</v>
@@ -7810,7 +7755,7 @@
       </c>
       <c r="E171" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="172">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="172">
       <c r="A172" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/musicalStyle")</f>
         <v>http://dbpedia.org/property/musicalStyle</v>
@@ -7825,7 +7770,7 @@
       </c>
       <c r="E172" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="173">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="173">
       <c r="A173" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genere")</f>
         <v>http://dbpedia.org/property/genere</v>
@@ -7840,7 +7785,7 @@
       </c>
       <c r="E173" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="174">
       <c r="A174" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/genre.")</f>
         <v>http://dbpedia.org/property/genre.</v>
@@ -7855,7 +7800,7 @@
       </c>
       <c r="E174" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="175">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="175">
       <c r="A175" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/fusionGenres")</f>
         <v>http://dbpedia.org/property/fusionGenres</v>
@@ -7870,7 +7815,7 @@
       </c>
       <c r="E175" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="176">
       <c r="A176" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/styles")</f>
         <v>http://dbpedia.org/property/styles</v>
@@ -7885,7 +7830,7 @@
       </c>
       <c r="E176" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="178">
       <c r="A178" s="2" t="n">
         <v>1161561471</v>
       </c>
@@ -7899,7 +7844,7 @@
       <c r="D178" s="4"/>
       <c r="E178" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="179">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="179">
       <c r="A179" s="6" t="s">
         <v>363</v>
       </c>
@@ -7916,7 +7861,7 @@
         <v>367</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="180">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="180">
       <c r="A180" s="6" t="s">
         <v>368</v>
       </c>
@@ -7933,7 +7878,7 @@
         <v>372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="181">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="181">
       <c r="A181" s="6" t="s">
         <v>373</v>
       </c>
@@ -7950,7 +7895,7 @@
         <v>377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="182">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="182">
       <c r="A182" s="6" t="s">
         <v>378</v>
       </c>
@@ -7967,7 +7912,7 @@
         <v>382</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="183">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="183">
       <c r="A183" s="6" t="s">
         <v>383</v>
       </c>
@@ -7984,7 +7929,7 @@
         <v>387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="184">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="184">
       <c r="A184" s="6" t="s">
         <v>388</v>
       </c>
@@ -8001,7 +7946,7 @@
         <v>392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="185">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="185">
       <c r="A185" s="6" t="s">
         <v>393</v>
       </c>
@@ -8018,7 +7963,7 @@
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="186">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="186">
       <c r="A186" s="6" t="s">
         <v>398</v>
       </c>
@@ -8035,7 +7980,7 @@
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="187">
       <c r="A187" s="6" t="s">
         <v>403</v>
       </c>
@@ -8052,7 +7997,7 @@
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="188">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="188">
       <c r="A188" s="6" t="s">
         <v>408</v>
       </c>
@@ -8069,7 +8014,7 @@
         <v>412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="189">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="189">
       <c r="A189" s="6" t="s">
         <v>413</v>
       </c>
@@ -8086,7 +8031,7 @@
         <v>417</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="190">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="190">
       <c r="A190" s="6" t="s">
         <v>418</v>
       </c>
@@ -8103,7 +8048,7 @@
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="191">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="191">
       <c r="A191" s="6" t="s">
         <v>423</v>
       </c>
@@ -8120,7 +8065,7 @@
         <v>427</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="192">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="192">
       <c r="A192" s="6" t="s">
         <v>428</v>
       </c>
@@ -8137,7 +8082,7 @@
         <v>432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="193">
       <c r="A193" s="6" t="s">
         <v>433</v>
       </c>
@@ -8154,7 +8099,7 @@
         <v>437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="194">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="194">
       <c r="A194" s="6" t="s">
         <v>438</v>
       </c>
@@ -8171,7 +8116,7 @@
         <v>442</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="195">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="195">
       <c r="A195" s="6" t="s">
         <v>443</v>
       </c>
@@ -8188,7 +8133,7 @@
         <v>447</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="196">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="196">
       <c r="A196" s="6" t="s">
         <v>448</v>
       </c>
@@ -8205,7 +8150,7 @@
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="197">
       <c r="A197" s="6" t="s">
         <v>453</v>
       </c>
@@ -8222,7 +8167,7 @@
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="198">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="198">
       <c r="A198" s="6" t="s">
         <v>458</v>
       </c>
@@ -8239,7 +8184,7 @@
         <v>462</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="199">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="199">
       <c r="A199" s="6" t="s">
         <v>463</v>
       </c>
@@ -8256,7 +8201,7 @@
         <v>467</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="200">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="200">
       <c r="A200" s="6" t="s">
         <v>468</v>
       </c>
@@ -8273,7 +8218,7 @@
         <v>472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="201">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="201">
       <c r="A201" s="6" t="s">
         <v>473</v>
       </c>
@@ -8290,7 +8235,7 @@
         <v>476</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="202">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="202">
       <c r="A202" s="6" t="s">
         <v>477</v>
       </c>
@@ -8307,7 +8252,7 @@
         <v>481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="203">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="203">
       <c r="A203" s="6" t="s">
         <v>482</v>
       </c>
@@ -8324,7 +8269,7 @@
         <v>486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="204">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="204">
       <c r="A204" s="6" t="s">
         <v>487</v>
       </c>
@@ -8341,7 +8286,7 @@
         <v>491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="205">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="205">
       <c r="A205" s="6" t="s">
         <v>492</v>
       </c>
@@ -8358,7 +8303,7 @@
         <v>496</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="206">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="206">
       <c r="A206" s="6" t="s">
         <v>497</v>
       </c>
@@ -8375,7 +8320,7 @@
         <v>501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="207">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="207">
       <c r="A207" s="6" t="s">
         <v>502</v>
       </c>
@@ -8392,7 +8337,7 @@
         <v>506</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="208">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="208">
       <c r="A208" s="6" t="s">
         <v>507</v>
       </c>
@@ -8409,7 +8354,7 @@
         <v>511</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="209">
       <c r="A209" s="6" t="s">
         <v>512</v>
       </c>
@@ -8426,7 +8371,7 @@
         <v>516</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="210">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="210">
       <c r="A210" s="6" t="s">
         <v>517</v>
       </c>
@@ -8443,7 +8388,7 @@
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="211">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="211">
       <c r="A211" s="6" t="s">
         <v>522</v>
       </c>
@@ -8460,7 +8405,7 @@
         <v>526</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="212">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="212">
       <c r="A212" s="6" t="s">
         <v>527</v>
       </c>
@@ -8477,7 +8422,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="213">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="213">
       <c r="A213" s="6" t="s">
         <v>532</v>
       </c>
@@ -8494,7 +8439,7 @@
         <v>536</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="214">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="214">
       <c r="A214" s="6" t="s">
         <v>537</v>
       </c>
@@ -8511,7 +8456,7 @@
         <v>541</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="215">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="215">
       <c r="A215" s="6" t="s">
         <v>542</v>
       </c>
@@ -8528,7 +8473,7 @@
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="216">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="216">
       <c r="A216" s="6" t="s">
         <v>547</v>
       </c>
@@ -8545,7 +8490,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="217">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="217">
       <c r="A217" s="6" t="s">
         <v>552</v>
       </c>
@@ -8562,7 +8507,7 @@
         <v>556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="218">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="218">
       <c r="A218" s="6" t="s">
         <v>557</v>
       </c>
@@ -8579,7 +8524,7 @@
         <v>561</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="219">
       <c r="A219" s="11" t="str">
         <f aca="false">HYPERLINK("http://xmlns.com/foaf/0.1/name")</f>
         <v>http://xmlns.com/foaf/0.1/name</v>
@@ -8594,7 +8539,7 @@
       </c>
       <c r="E219" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="220">
       <c r="A220" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/name")</f>
         <v>http://dbpedia.org/property/name</v>
@@ -8609,7 +8554,7 @@
       </c>
       <c r="E220" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="221">
       <c r="A221" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/manufacturer")</f>
         <v>http://dbpedia.org/property/manufacturer</v>
@@ -8624,7 +8569,7 @@
       </c>
       <c r="E221" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="222">
       <c r="A222" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/manufacturer")</f>
         <v>http://dbpedia.org/ontology/manufacturer</v>
@@ -8639,7 +8584,7 @@
       </c>
       <c r="E222" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="224">
       <c r="A224" s="2" t="n">
         <v>2117679317</v>
       </c>
@@ -8653,7 +8598,7 @@
       <c r="D224" s="4"/>
       <c r="E224" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="225">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="225">
       <c r="A225" s="6" t="s">
         <v>565</v>
       </c>
@@ -8670,7 +8615,7 @@
         <v>569</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="226">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="226">
       <c r="A226" s="6" t="s">
         <v>570</v>
       </c>
@@ -8687,7 +8632,7 @@
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="227">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="227">
       <c r="A227" s="6" t="s">
         <v>575</v>
       </c>
@@ -8704,7 +8649,7 @@
         <v>579</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="228">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="228">
       <c r="A228" s="6" t="s">
         <v>580</v>
       </c>
@@ -8721,7 +8666,7 @@
         <v>584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="229">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="229">
       <c r="A229" s="6" t="s">
         <v>585</v>
       </c>
@@ -8738,7 +8683,7 @@
         <v>589</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="230">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="230">
       <c r="A230" s="6" t="s">
         <v>590</v>
       </c>
@@ -8755,7 +8700,7 @@
         <v>594</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="231">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="231">
       <c r="A231" s="6" t="s">
         <v>595</v>
       </c>
@@ -8772,7 +8717,7 @@
         <v>599</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="232">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="232">
       <c r="A232" s="6" t="s">
         <v>600</v>
       </c>
@@ -8789,7 +8734,7 @@
         <v>604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="233">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="233">
       <c r="A233" s="6" t="s">
         <v>605</v>
       </c>
@@ -8806,7 +8751,7 @@
         <v>609</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="234">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="234">
       <c r="A234" s="6" t="s">
         <v>610</v>
       </c>
@@ -8823,7 +8768,7 @@
         <v>614</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="235">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="235">
       <c r="A235" s="6" t="s">
         <v>615</v>
       </c>
@@ -8840,7 +8785,7 @@
         <v>619</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="236">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="236">
       <c r="A236" s="6" t="s">
         <v>620</v>
       </c>
@@ -8857,7 +8802,7 @@
         <v>624</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="237">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="237">
       <c r="A237" s="6" t="s">
         <v>625</v>
       </c>
@@ -8874,7 +8819,7 @@
         <v>629</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="238">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="238">
       <c r="A238" s="6" t="s">
         <v>630</v>
       </c>
@@ -8891,7 +8836,7 @@
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="239">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="239">
       <c r="A239" s="6" t="s">
         <v>635</v>
       </c>
@@ -8908,7 +8853,7 @@
         <v>639</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="240">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="240">
       <c r="A240" s="6" t="s">
         <v>640</v>
       </c>
@@ -8925,7 +8870,7 @@
         <v>644</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="241">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="241">
       <c r="A241" s="6" t="s">
         <v>645</v>
       </c>
@@ -8942,7 +8887,7 @@
         <v>649</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="242">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="242">
       <c r="A242" s="6" t="s">
         <v>650</v>
       </c>
@@ -8959,7 +8904,7 @@
         <v>654</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="243">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="243">
       <c r="A243" s="6" t="s">
         <v>655</v>
       </c>
@@ -8968,7 +8913,7 @@
       <c r="D243" s="9"/>
       <c r="E243" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="244">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="244">
       <c r="A244" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/city")</f>
         <v>http://dbpedia.org/ontology/city</v>
@@ -8983,7 +8928,7 @@
       </c>
       <c r="E244" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="245">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="245">
       <c r="A245" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/cityServed")</f>
         <v>http://dbpedia.org/property/cityServed</v>
@@ -8998,7 +8943,7 @@
       </c>
       <c r="E245" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="246">
       <c r="A246" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/location")</f>
         <v>http://dbpedia.org/property/location</v>
@@ -9013,7 +8958,7 @@
       </c>
       <c r="E246" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="247">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="247">
       <c r="A247" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/location")</f>
         <v>http://dbpedia.org/ontology/location</v>
@@ -9028,7 +8973,7 @@
       </c>
       <c r="E247" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="249">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="249">
       <c r="A249" s="2" t="n">
         <v>1088443226</v>
       </c>
@@ -9042,7 +8987,7 @@
       <c r="D249" s="4"/>
       <c r="E249" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="250">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="250">
       <c r="A250" s="6" t="s">
         <v>659</v>
       </c>
@@ -9059,7 +9004,7 @@
         <v>663</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="251">
       <c r="A251" s="6" t="s">
         <v>664</v>
       </c>
@@ -9076,7 +9021,7 @@
         <v>668</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="252">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="252">
       <c r="A252" s="6" t="s">
         <v>669</v>
       </c>
@@ -9093,7 +9038,7 @@
         <v>673</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="253">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="253">
       <c r="A253" s="6" t="s">
         <v>674</v>
       </c>
@@ -9110,7 +9055,7 @@
         <v>678</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="254">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="254">
       <c r="A254" s="6" t="s">
         <v>679</v>
       </c>
@@ -9127,7 +9072,7 @@
         <v>683</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="255">
       <c r="A255" s="6" t="s">
         <v>684</v>
       </c>
@@ -9144,7 +9089,7 @@
         <v>688</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="256">
       <c r="A256" s="6" t="s">
         <v>689</v>
       </c>
@@ -9161,7 +9106,7 @@
         <v>693</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="257">
       <c r="A257" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/phylum")</f>
         <v>http://dbpedia.org/property/phylum</v>
@@ -9176,7 +9121,7 @@
       </c>
       <c r="E257" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="258">
       <c r="A258" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/phylum")</f>
         <v>http://dbpedia.org/ontology/phylum</v>
@@ -9191,7 +9136,7 @@
       </c>
       <c r="E258" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="260">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="260">
       <c r="A260" s="2" t="n">
         <v>213755943</v>
       </c>
@@ -9205,7 +9150,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="261">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="261">
       <c r="A261" s="6" t="s">
         <v>695</v>
       </c>
@@ -9218,7 +9163,7 @@
       <c r="D261" s="9"/>
       <c r="E261" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="262">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="262">
       <c r="A262" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/period")</f>
         <v>http://dbpedia.org/property/period</v>
@@ -9233,7 +9178,7 @@
       </c>
       <c r="E262" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="263">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="263">
       <c r="A263" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/fossilRange")</f>
         <v>http://dbpedia.org/property/fossilRange</v>
@@ -9248,7 +9193,7 @@
       </c>
       <c r="E263" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="264">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="264">
       <c r="A264" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/oldestFossil")</f>
         <v>http://dbpedia.org/property/oldestFossil</v>
@@ -9263,7 +9208,7 @@
       </c>
       <c r="E264" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="265">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="265">
       <c r="A265" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/extinct")</f>
         <v>http://dbpedia.org/property/extinct</v>
@@ -9278,7 +9223,7 @@
       </c>
       <c r="E265" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="266">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="266">
       <c r="A266" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/youngestFossil")</f>
         <v>http://dbpedia.org/property/youngestFossil</v>
@@ -9293,7 +9238,7 @@
       </c>
       <c r="E266" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="268">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="268">
       <c r="A268" s="2" t="n">
         <v>991851157</v>
       </c>
@@ -9307,7 +9252,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="269">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="269">
       <c r="A269" s="6" t="s">
         <v>71</v>
       </c>
@@ -9324,7 +9269,7 @@
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="270">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="270">
       <c r="A270" s="6" t="s">
         <v>706</v>
       </c>
@@ -9341,7 +9286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="271">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="271">
       <c r="A271" s="6" t="s">
         <v>709</v>
       </c>
@@ -9358,7 +9303,7 @@
         <v>713</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="272">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="272">
       <c r="A272" s="6" t="s">
         <v>714</v>
       </c>
@@ -9375,7 +9320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="273">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="273">
       <c r="A273" s="6" t="s">
         <v>718</v>
       </c>
@@ -9392,7 +9337,7 @@
         <v>720</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="274">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="274">
       <c r="A274" s="6" t="s">
         <v>80</v>
       </c>
@@ -9409,7 +9354,7 @@
         <v>723</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="275">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="275">
       <c r="A275" s="6" t="s">
         <v>724</v>
       </c>
@@ -9426,7 +9371,7 @@
         <v>726</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="276">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="276">
       <c r="A276" s="6" t="s">
         <v>89</v>
       </c>
@@ -9443,7 +9388,7 @@
         <v>729</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="277">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="277">
       <c r="A277" s="6" t="s">
         <v>730</v>
       </c>
@@ -9460,7 +9405,7 @@
         <v>733</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="278">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="278">
       <c r="A278" s="6" t="s">
         <v>77</v>
       </c>
@@ -9477,7 +9422,7 @@
         <v>737</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="279">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="279">
       <c r="A279" s="6" t="s">
         <v>738</v>
       </c>
@@ -9494,7 +9439,7 @@
         <v>742</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="280">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="280">
       <c r="A280" s="6" t="s">
         <v>743</v>
       </c>
@@ -9511,7 +9456,7 @@
         <v>746</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="281">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="281">
       <c r="A281" s="6" t="s">
         <v>72</v>
       </c>
@@ -9528,7 +9473,7 @@
         <v>749</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="282">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="282">
       <c r="A282" s="6" t="s">
         <v>750</v>
       </c>
@@ -9545,7 +9490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="283">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="283">
       <c r="A283" s="6" t="s">
         <v>754</v>
       </c>
@@ -9556,7 +9501,7 @@
       <c r="D283" s="9"/>
       <c r="E283" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="284">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="284">
       <c r="A284" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/placeOfBirth")</f>
         <v>http://dbpedia.org/property/placeOfBirth</v>
@@ -9571,7 +9516,7 @@
       </c>
       <c r="E284" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="285">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="285">
       <c r="A285" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/birthPlace")</f>
         <v>http://dbpedia.org/property/birthPlace</v>
@@ -9586,7 +9531,7 @@
       </c>
       <c r="E285" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="286">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="286">
       <c r="A286" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/team")</f>
         <v>http://dbpedia.org/ontology/team</v>
@@ -9601,7 +9546,7 @@
       </c>
       <c r="E286" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="287">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="287">
       <c r="A287" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/birthPlace")</f>
         <v>http://dbpedia.org/ontology/birthPlace</v>
@@ -9616,7 +9561,7 @@
       </c>
       <c r="E287" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="288">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="288">
       <c r="A288" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationalteam")</f>
         <v>http://dbpedia.org/property/nationalteam</v>
@@ -9631,7 +9576,7 @@
       </c>
       <c r="E288" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="289">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="289">
       <c r="A289" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -9646,7 +9591,7 @@
       </c>
       <c r="E289" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="290">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="290">
       <c r="A290" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/nationality")</f>
         <v>http://dbpedia.org/ontology/nationality</v>
@@ -9661,7 +9606,7 @@
       </c>
       <c r="E290" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="291">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="291">
       <c r="A291" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/deathPlace")</f>
         <v>http://dbpedia.org/ontology/deathPlace</v>
@@ -9676,7 +9621,7 @@
       </c>
       <c r="E291" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="292">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="292">
       <c r="A292" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nat")</f>
         <v>http://dbpedia.org/property/nat</v>
@@ -9691,7 +9636,7 @@
       </c>
       <c r="E292" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="293">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="293">
       <c r="A293" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -9706,7 +9651,7 @@
       </c>
       <c r="E293" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="294">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="294">
       <c r="A294" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationality")</f>
         <v>http://dbpedia.org/property/nationality</v>
@@ -9721,7 +9666,7 @@
       </c>
       <c r="E294" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="295">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="295">
       <c r="A295" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/team")</f>
         <v>http://dbpedia.org/property/team</v>
@@ -9736,7 +9681,7 @@
       </c>
       <c r="E295" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="296">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="296">
       <c r="A296" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/nationalTeam")</f>
         <v>http://dbpedia.org/ontology/nationalTeam</v>
@@ -9751,7 +9696,7 @@
       </c>
       <c r="E296" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="297">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="297">
       <c r="A297" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/stateOfOrigin")</f>
         <v>http://dbpedia.org/ontology/stateOfOrigin</v>
@@ -9766,7 +9711,7 @@
       </c>
       <c r="E297" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="298">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="298">
       <c r="A298" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ntlTeam")</f>
         <v>http://dbpedia.org/property/ntlTeam</v>
@@ -9781,7 +9726,7 @@
       </c>
       <c r="E298" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="299">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="299">
       <c r="A299" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/homecountry")</f>
         <v>http://dbpedia.org/property/homecountry</v>
@@ -9796,7 +9741,7 @@
       </c>
       <c r="E299" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="300">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="300">
       <c r="A300" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/league")</f>
         <v>http://dbpedia.org/property/league</v>
@@ -9811,7 +9756,7 @@
       </c>
       <c r="E300" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="301">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="301">
       <c r="A301" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/league")</f>
         <v>http://dbpedia.org/ontology/league</v>
@@ -9826,7 +9771,7 @@
       </c>
       <c r="E301" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="302">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="302">
       <c r="A302" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/birthplace")</f>
         <v>http://dbpedia.org/property/birthplace</v>
@@ -9841,7 +9786,7 @@
       </c>
       <c r="E302" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="303">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="303">
       <c r="A303" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playedFor")</f>
         <v>http://dbpedia.org/property/playedFor</v>
@@ -9856,7 +9801,7 @@
       </c>
       <c r="E303" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="304">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="304">
       <c r="A304" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/leagues")</f>
         <v>http://dbpedia.org/property/leagues</v>
@@ -9871,7 +9816,7 @@
       </c>
       <c r="E304" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="305">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="305">
       <c r="A305" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationalteams")</f>
         <v>http://dbpedia.org/property/nationalteams</v>
@@ -9886,7 +9831,7 @@
       </c>
       <c r="E305" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="306">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="306">
       <c r="A306" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playerTeams")</f>
         <v>http://dbpedia.org/property/playerTeams</v>
@@ -9901,7 +9846,7 @@
       </c>
       <c r="E306" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="307">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="307">
       <c r="A307" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/countryRepresented")</f>
         <v>http://dbpedia.org/property/countryRepresented</v>
@@ -9916,7 +9861,7 @@
       </c>
       <c r="E307" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="309">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="309">
       <c r="A309" s="2" t="n">
         <v>1300152499</v>
       </c>
@@ -9930,7 +9875,7 @@
       <c r="D309" s="4"/>
       <c r="E309" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="310">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="310">
       <c r="A310" s="6" t="s">
         <v>774</v>
       </c>
@@ -9947,7 +9892,7 @@
         <v>778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="311">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="311">
       <c r="A311" s="6" t="s">
         <v>779</v>
       </c>
@@ -9958,7 +9903,7 @@
       <c r="D311" s="9"/>
       <c r="E311" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="312">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="312">
       <c r="A312" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pos")</f>
         <v>http://dbpedia.org/property/pos</v>
@@ -9973,7 +9918,7 @@
       </c>
       <c r="E312" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="313">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="313">
       <c r="A313" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/position")</f>
         <v>http://dbpedia.org/ontology/position</v>
@@ -9988,7 +9933,7 @@
       </c>
       <c r="E313" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="314">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="314">
       <c r="A314" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/position")</f>
         <v>http://dbpedia.org/property/position</v>
@@ -10003,7 +9948,7 @@
       </c>
       <c r="E314" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="315">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="315">
       <c r="A315" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playerPositions")</f>
         <v>http://dbpedia.org/property/playerPositions</v>
@@ -10018,7 +9963,7 @@
       </c>
       <c r="E315" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="316">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="316">
       <c r="A316" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/currentpositionplain")</f>
         <v>http://dbpedia.org/property/currentpositionplain</v>
@@ -10033,7 +9978,7 @@
       </c>
       <c r="E316" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="317">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="317">
       <c r="A317" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playerPosition")</f>
         <v>http://dbpedia.org/property/playerPosition</v>
@@ -10048,7 +9993,7 @@
       </c>
       <c r="E317" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="318">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="318">
       <c r="A318" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/currentPosition")</f>
         <v>http://dbpedia.org/property/currentPosition</v>
@@ -10063,7 +10008,7 @@
       </c>
       <c r="E318" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="320">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="320">
       <c r="A320" s="2" t="n">
         <v>748406375</v>
       </c>
@@ -10077,7 +10022,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="321">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="321">
       <c r="A321" s="6" t="s">
         <v>787</v>
       </c>
@@ -10094,7 +10039,7 @@
         <v>791</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="322">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="322">
       <c r="A322" s="6" t="s">
         <v>792</v>
       </c>
@@ -10111,7 +10056,7 @@
         <v>795</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="323">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="323">
       <c r="A323" s="6" t="s">
         <v>796</v>
       </c>
@@ -10128,7 +10073,7 @@
         <v>800</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="324">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="324">
       <c r="A324" s="6" t="s">
         <v>801</v>
       </c>
@@ -10145,7 +10090,7 @@
         <v>805</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="325">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="325">
       <c r="A325" s="6" t="s">
         <v>806</v>
       </c>
@@ -10162,7 +10107,7 @@
         <v>810</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="326">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="326">
       <c r="A326" s="6" t="s">
         <v>811</v>
       </c>
@@ -10179,7 +10124,7 @@
         <v>815</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="327">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="327">
       <c r="A327" s="6" t="s">
         <v>816</v>
       </c>
@@ -10196,7 +10141,7 @@
         <v>820</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="328">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="328">
       <c r="A328" s="6" t="s">
         <v>821</v>
       </c>
@@ -10213,7 +10158,7 @@
         <v>825</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="329">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="329">
       <c r="A329" s="6" t="s">
         <v>826</v>
       </c>
@@ -10228,7 +10173,7 @@
       </c>
       <c r="E329" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="330">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="330">
       <c r="A330" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/team")</f>
         <v>http://dbpedia.org/property/team</v>
@@ -10243,7 +10188,7 @@
       </c>
       <c r="E330" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="331">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="331">
       <c r="A331" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/teams")</f>
         <v>http://dbpedia.org/property/teams</v>
@@ -10258,7 +10203,7 @@
       </c>
       <c r="E331" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="332">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="332">
       <c r="A332" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/cteam")</f>
         <v>http://dbpedia.org/property/cteam</v>
@@ -10273,7 +10218,7 @@
       </c>
       <c r="E332" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="333">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="333">
       <c r="A333" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftTeam")</f>
         <v>http://dbpedia.org/property/draftTeam</v>
@@ -10288,7 +10233,7 @@
       </c>
       <c r="E333" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="334">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="334">
       <c r="A334" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/formerTeams")</f>
         <v>http://dbpedia.org/property/formerTeams</v>
@@ -10303,7 +10248,7 @@
       </c>
       <c r="E334" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="335">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="335">
       <c r="A335" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/draftTeam")</f>
         <v>http://dbpedia.org/ontology/draftTeam</v>
@@ -10318,7 +10263,7 @@
       </c>
       <c r="E335" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="336">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="336">
       <c r="A336" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/formerTeam")</f>
         <v>http://dbpedia.org/ontology/formerTeam</v>
@@ -10333,7 +10278,7 @@
       </c>
       <c r="E336" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="337">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="337">
       <c r="A337" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/team")</f>
         <v>http://dbpedia.org/ontology/team</v>
@@ -10348,7 +10293,7 @@
       </c>
       <c r="E337" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="338">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="338">
       <c r="A338" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playerTeams")</f>
         <v>http://dbpedia.org/property/playerTeams</v>
@@ -10363,7 +10308,7 @@
       </c>
       <c r="E338" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="339">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="339">
       <c r="A339" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/club")</f>
         <v>http://dbpedia.org/property/club</v>
@@ -10378,7 +10323,7 @@
       </c>
       <c r="E339" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="340">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="340">
       <c r="A340" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/draftteam")</f>
         <v>http://dbpedia.org/property/draftteam</v>
@@ -10393,7 +10338,7 @@
       </c>
       <c r="E340" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="341">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="341">
       <c r="A341" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pickedBy")</f>
         <v>http://dbpedia.org/property/pickedBy</v>
@@ -10408,7 +10353,7 @@
       </c>
       <c r="E341" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="342">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="342">
       <c r="A342" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playingTeams")</f>
         <v>http://dbpedia.org/property/playingTeams</v>
@@ -10423,7 +10368,7 @@
       </c>
       <c r="E342" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="343">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="343">
       <c r="A343" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pastteams")</f>
         <v>http://dbpedia.org/property/pastteams</v>
@@ -10438,7 +10383,7 @@
       </c>
       <c r="E343" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="344">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="344">
       <c r="A344" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/currentTeam")</f>
         <v>http://dbpedia.org/property/currentTeam</v>
@@ -10453,7 +10398,7 @@
       </c>
       <c r="E344" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="345">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="345">
       <c r="A345" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/debutteam")</f>
         <v>http://dbpedia.org/property/debutteam</v>
@@ -10468,7 +10413,7 @@
       </c>
       <c r="E345" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="346">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="346">
       <c r="A346" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/playedFor")</f>
         <v>http://dbpedia.org/property/playedFor</v>
@@ -10483,7 +10428,7 @@
       </c>
       <c r="E346" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="347">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="347">
       <c r="A347" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/finalteam")</f>
         <v>http://dbpedia.org/property/finalteam</v>
@@ -10498,7 +10443,7 @@
       </c>
       <c r="E347" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="348">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="348">
       <c r="A348" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/clubs")</f>
         <v>http://dbpedia.org/property/clubs</v>
@@ -10513,7 +10458,7 @@
       </c>
       <c r="E348" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="349">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="349">
       <c r="A349" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/formerteams")</f>
         <v>http://dbpedia.org/property/formerteams</v>
@@ -10528,7 +10473,7 @@
       </c>
       <c r="E349" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="350">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="350">
       <c r="A350" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/debutTeam")</f>
         <v>http://dbpedia.org/ontology/debutTeam</v>
@@ -10543,7 +10488,7 @@
       </c>
       <c r="E350" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="351">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="351">
       <c r="A351" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/currentclub")</f>
         <v>http://dbpedia.org/property/currentclub</v>
@@ -10558,7 +10503,7 @@
       </c>
       <c r="E351" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="352">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="352">
       <c r="A352" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/currentteam")</f>
         <v>http://dbpedia.org/property/currentteam</v>
@@ -10573,7 +10518,7 @@
       </c>
       <c r="E352" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="353">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="353">
       <c r="A353" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/previousClubs")</f>
         <v>http://dbpedia.org/property/previousClubs</v>
@@ -10588,7 +10533,7 @@
       </c>
       <c r="E353" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="355">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="355">
       <c r="A355" s="2" t="n">
         <v>1058967988</v>
       </c>
@@ -10602,7 +10547,7 @@
       <c r="D355" s="4"/>
       <c r="E355" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="356">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="356">
       <c r="A356" s="6" t="s">
         <v>74</v>
       </c>
@@ -10619,7 +10564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="357">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="357">
       <c r="A357" s="6" t="s">
         <v>719</v>
       </c>
@@ -10636,7 +10581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="358">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="358">
       <c r="A358" s="6" t="s">
         <v>850</v>
       </c>
@@ -10653,7 +10598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="359">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="359">
       <c r="A359" s="6" t="s">
         <v>734</v>
       </c>
@@ -10670,7 +10615,7 @@
         <v>740</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="360">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="360">
       <c r="A360" s="6" t="s">
         <v>854</v>
       </c>
@@ -10687,7 +10632,7 @@
         <v>856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="361">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="361">
       <c r="A361" s="6" t="s">
         <v>748</v>
       </c>
@@ -10704,7 +10649,7 @@
         <v>754</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="362">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="362">
       <c r="A362" s="6" t="s">
         <v>857</v>
       </c>
@@ -10715,7 +10660,7 @@
       <c r="D362" s="9"/>
       <c r="E362" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="363">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="363">
       <c r="A363" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/birthPlace")</f>
         <v>http://dbpedia.org/property/birthPlace</v>
@@ -10730,7 +10675,7 @@
       </c>
       <c r="E363" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="364">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="364">
       <c r="A364" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/birthPlace")</f>
         <v>http://dbpedia.org/ontology/birthPlace</v>
@@ -10745,7 +10690,7 @@
       </c>
       <c r="E364" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="365">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="365">
       <c r="A365" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/placeOfBirth")</f>
         <v>http://dbpedia.org/property/placeOfBirth</v>
@@ -10760,7 +10705,7 @@
       </c>
       <c r="E365" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="366">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="366">
       <c r="A366" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -10775,7 +10720,7 @@
       </c>
       <c r="E366" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="367">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="367">
       <c r="A367" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/placeOfDeath")</f>
         <v>http://dbpedia.org/property/placeOfDeath</v>
@@ -10790,7 +10735,7 @@
       </c>
       <c r="E367" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="368">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="368">
       <c r="A368" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationalteam")</f>
         <v>http://dbpedia.org/property/nationalteam</v>
@@ -10805,7 +10750,7 @@
       </c>
       <c r="E368" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="369">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="369">
       <c r="A369" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/deathPlace")</f>
         <v>http://dbpedia.org/property/deathPlace</v>
@@ -10820,7 +10765,7 @@
       </c>
       <c r="E369" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="370">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="370">
       <c r="A370" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/team")</f>
         <v>http://dbpedia.org/ontology/team</v>
@@ -10835,7 +10780,7 @@
       </c>
       <c r="E370" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="371">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="371">
       <c r="A371" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/nationality")</f>
         <v>http://dbpedia.org/ontology/nationality</v>
@@ -10850,7 +10795,7 @@
       </c>
       <c r="E371" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="372">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="372">
       <c r="A372" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -10865,7 +10810,7 @@
       </c>
       <c r="E372" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="373">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="373">
       <c r="A373" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nat")</f>
         <v>http://dbpedia.org/property/nat</v>
@@ -10880,7 +10825,7 @@
       </c>
       <c r="E373" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="374">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="374">
       <c r="A374" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationality")</f>
         <v>http://dbpedia.org/property/nationality</v>
@@ -10895,7 +10840,7 @@
       </c>
       <c r="E374" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="375">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="375">
       <c r="A375" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/team")</f>
         <v>http://dbpedia.org/property/team</v>
@@ -10910,7 +10855,7 @@
       </c>
       <c r="E375" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="376">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="376">
       <c r="A376" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/stateOfOrigin")</f>
         <v>http://dbpedia.org/ontology/stateOfOrigin</v>
@@ -10925,7 +10870,7 @@
       </c>
       <c r="E376" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="377">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="377">
       <c r="A377" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ntlTeam")</f>
         <v>http://dbpedia.org/property/ntlTeam</v>
@@ -10940,7 +10885,7 @@
       </c>
       <c r="E377" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="378">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="378">
       <c r="A378" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/homecountry")</f>
         <v>http://dbpedia.org/property/homecountry</v>
@@ -10955,7 +10900,7 @@
       </c>
       <c r="E378" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="379">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="379">
       <c r="A379" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/nationalTeam")</f>
         <v>http://dbpedia.org/ontology/nationalTeam</v>
@@ -10970,7 +10915,7 @@
       </c>
       <c r="E379" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="380">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="380">
       <c r="A380" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/countryRepresented")</f>
         <v>http://dbpedia.org/property/countryRepresented</v>
@@ -10985,7 +10930,7 @@
       </c>
       <c r="E380" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="381">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="381">
       <c r="A381" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationalteams")</f>
         <v>http://dbpedia.org/property/nationalteams</v>
@@ -11000,7 +10945,7 @@
       </c>
       <c r="E381" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="382">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="382">
       <c r="A382" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/birthplace")</f>
         <v>http://dbpedia.org/property/birthplace</v>
@@ -11015,7 +10960,7 @@
       </c>
       <c r="E382" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="383">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="383">
       <c r="A383" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/countryofbirth")</f>
         <v>http://dbpedia.org/property/countryofbirth</v>
@@ -11030,7 +10975,7 @@
       </c>
       <c r="E383" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="384">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="384">
       <c r="A384" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationaliity")</f>
         <v>http://dbpedia.org/property/nationaliity</v>
@@ -11045,7 +10990,7 @@
       </c>
       <c r="E384" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="385">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="385">
       <c r="A385" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/placebirth")</f>
         <v>http://dbpedia.org/property/placebirth</v>
@@ -11060,7 +11005,7 @@
       </c>
       <c r="E385" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="387">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="387">
       <c r="A387" s="2" t="n">
         <v>704436051</v>
       </c>
@@ -11074,7 +11019,7 @@
       <c r="D387" s="4"/>
       <c r="E387" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="388">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="388">
       <c r="A388" s="6" t="s">
         <v>864</v>
       </c>
@@ -11091,7 +11036,7 @@
         <v>868</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="389">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="389">
       <c r="A389" s="6" t="s">
         <v>869</v>
       </c>
@@ -11108,7 +11053,7 @@
         <v>873</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="390">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="390">
       <c r="A390" s="6" t="s">
         <v>874</v>
       </c>
@@ -11125,7 +11070,7 @@
         <v>878</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="391">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="391">
       <c r="A391" s="6" t="s">
         <v>879</v>
       </c>
@@ -11140,7 +11085,7 @@
       </c>
       <c r="E391" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="392">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="392">
       <c r="A392" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/author")</f>
         <v>http://dbpedia.org/ontology/author</v>
@@ -11155,7 +11100,7 @@
       </c>
       <c r="E392" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="393">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="393">
       <c r="A393" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/author")</f>
         <v>http://dbpedia.org/property/author</v>
@@ -11170,7 +11115,7 @@
       </c>
       <c r="E393" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="395">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="395">
       <c r="A395" s="2" t="n">
         <v>244307158</v>
       </c>
@@ -11184,7 +11129,7 @@
       <c r="D395" s="4"/>
       <c r="E395" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="396">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="396">
       <c r="A396" s="6" t="n">
         <v>1754</v>
       </c>
@@ -11201,7 +11146,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="397">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="397">
       <c r="A397" s="6" t="n">
         <v>1881</v>
       </c>
@@ -11218,7 +11163,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="398">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="398">
       <c r="A398" s="6" t="n">
         <v>1902</v>
       </c>
@@ -11235,7 +11180,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="399">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="399">
       <c r="A399" s="6" t="n">
         <v>1939</v>
       </c>
@@ -11252,7 +11197,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="400">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="400">
       <c r="A400" s="6" t="n">
         <v>1951</v>
       </c>
@@ -11269,7 +11214,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="401">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="401">
       <c r="A401" s="6" t="n">
         <v>1966</v>
       </c>
@@ -11286,7 +11231,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="402">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="402">
       <c r="A402" s="6" t="n">
         <v>1975</v>
       </c>
@@ -11303,7 +11248,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="403">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="403">
       <c r="A403" s="6" t="n">
         <v>1984</v>
       </c>
@@ -11320,7 +11265,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="404">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="404">
       <c r="A404" s="6" t="n">
         <v>1998</v>
       </c>
@@ -11337,7 +11282,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="405">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="405">
       <c r="A405" s="6" t="n">
         <v>2007</v>
       </c>
@@ -11346,7 +11291,7 @@
       <c r="D405" s="9"/>
       <c r="E405" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="406">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="406">
       <c r="A406" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/releaseDate")</f>
         <v>http://dbpedia.org/property/releaseDate</v>
@@ -11361,7 +11306,7 @@
       </c>
       <c r="E406" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="407">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="407">
       <c r="A407" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pubDate")</f>
         <v>http://dbpedia.org/property/pubDate</v>
@@ -11376,7 +11321,7 @@
       </c>
       <c r="E407" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="408">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="408">
       <c r="A408" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/englishPubDate")</f>
         <v>http://dbpedia.org/property/englishPubDate</v>
@@ -11391,7 +11336,7 @@
       </c>
       <c r="E408" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="409">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="409">
       <c r="A409" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/years")</f>
         <v>http://dbpedia.org/property/years</v>
@@ -11406,7 +11351,7 @@
       </c>
       <c r="E409" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="410">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="410">
       <c r="A410" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/englishReleaseDate")</f>
         <v>http://dbpedia.org/property/englishReleaseDate</v>
@@ -11421,7 +11366,7 @@
       </c>
       <c r="E410" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="411">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="411">
       <c r="A411" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/publicationDate")</f>
         <v>http://dbpedia.org/ontology/publicationDate</v>
@@ -11436,7 +11381,7 @@
       </c>
       <c r="E411" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="412">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="412">
       <c r="A412" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/released")</f>
         <v>http://dbpedia.org/property/released</v>
@@ -11451,7 +11396,7 @@
       </c>
       <c r="E412" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="413">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="413">
       <c r="A413" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/releaseDate")</f>
         <v>http://dbpedia.org/ontology/releaseDate</v>
@@ -11466,7 +11411,7 @@
       </c>
       <c r="E413" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="414">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="414">
       <c r="A414" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origdate")</f>
         <v>http://dbpedia.org/property/origdate</v>
@@ -11481,7 +11426,7 @@
       </c>
       <c r="E414" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="415">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="415">
       <c r="A415" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -11496,7 +11441,7 @@
       </c>
       <c r="E415" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="416">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="416">
       <c r="A416" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/completionDate")</f>
         <v>http://dbpedia.org/ontology/completionDate</v>
@@ -11511,7 +11456,7 @@
       </c>
       <c r="E416" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="417">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="417">
       <c r="A417" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/publishDate")</f>
         <v>http://dbpedia.org/property/publishDate</v>
@@ -11526,7 +11471,7 @@
       </c>
       <c r="E417" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="418">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="418">
       <c r="A418" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/launchDate")</f>
         <v>http://dbpedia.org/property/launchDate</v>
@@ -11541,7 +11486,7 @@
       </c>
       <c r="E418" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="419">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="419">
       <c r="A419" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/firstPublicationDate")</f>
         <v>http://dbpedia.org/ontology/firstPublicationDate</v>
@@ -11556,7 +11501,7 @@
       </c>
       <c r="E419" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="420">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="420">
       <c r="A420" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/firstPublicationYear")</f>
         <v>http://dbpedia.org/ontology/firstPublicationYear</v>
@@ -11571,7 +11516,7 @@
       </c>
       <c r="E420" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="421">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="421">
       <c r="A421" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/originalreldate")</f>
         <v>http://dbpedia.org/property/originalreldate</v>
@@ -11586,7 +11531,7 @@
       </c>
       <c r="E421" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="422">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="422">
       <c r="A422" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/published")</f>
         <v>http://dbpedia.org/property/published</v>
@@ -11601,7 +11546,7 @@
       </c>
       <c r="E422" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="423">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="423">
       <c r="A423" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/publDate")</f>
         <v>http://dbpedia.org/property/publDate</v>
@@ -11616,7 +11561,7 @@
       </c>
       <c r="E423" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="424">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="424">
       <c r="A424" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/publicationDate")</f>
         <v>http://dbpedia.org/property/publicationDate</v>
@@ -11631,7 +11576,7 @@
       </c>
       <c r="E424" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="426">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="426">
       <c r="A426" s="2" t="n">
         <v>2021450258</v>
       </c>
@@ -11645,7 +11590,7 @@
       <c r="D426" s="4"/>
       <c r="E426" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="427">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="427">
       <c r="A427" s="6" t="s">
         <v>899</v>
       </c>
@@ -11662,7 +11607,7 @@
         <v>903</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="428">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="428">
       <c r="A428" s="6" t="s">
         <v>904</v>
       </c>
@@ -11679,7 +11624,7 @@
         <v>908</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="429">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="429">
       <c r="A429" s="6" t="s">
         <v>909</v>
       </c>
@@ -11688,7 +11633,7 @@
       <c r="D429" s="9"/>
       <c r="E429" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="430">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="430">
       <c r="A430" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/language")</f>
         <v>http://dbpedia.org/property/language</v>
@@ -11703,7 +11648,7 @@
       </c>
       <c r="E430" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="431">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="431">
       <c r="A431" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/language")</f>
         <v>http://dbpedia.org/ontology/language</v>
@@ -11718,7 +11663,7 @@
       </c>
       <c r="E431" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="432">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="432">
       <c r="A432" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationality")</f>
         <v>http://dbpedia.org/property/nationality</v>
@@ -11733,7 +11678,7 @@
       </c>
       <c r="E432" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="433">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="433">
       <c r="A433" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -11748,7 +11693,7 @@
       </c>
       <c r="E433" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="434">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="434">
       <c r="A434" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -11763,7 +11708,7 @@
       </c>
       <c r="E434" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="435">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="435">
       <c r="A435" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/translations")</f>
         <v>http://dbpedia.org/property/translations</v>
@@ -11778,7 +11723,7 @@
       </c>
       <c r="E435" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="436">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="436">
       <c r="A436" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/nationality")</f>
         <v>http://dbpedia.org/ontology/nationality</v>
@@ -11793,7 +11738,7 @@
       </c>
       <c r="E436" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="437">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="437">
       <c r="A437" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/stateOfOrigin")</f>
         <v>http://dbpedia.org/ontology/stateOfOrigin</v>
@@ -11808,7 +11753,7 @@
       </c>
       <c r="E437" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="438">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="438">
       <c r="A438" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/languages")</f>
         <v>http://dbpedia.org/property/languages</v>
@@ -11823,7 +11768,7 @@
       </c>
       <c r="E438" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="439">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="439">
       <c r="A439" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ethnicity")</f>
         <v>http://dbpedia.org/property/ethnicity</v>
@@ -11838,7 +11783,7 @@
       </c>
       <c r="E439" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="440">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="440">
       <c r="A440" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/officialLanguages")</f>
         <v>http://dbpedia.org/property/officialLanguages</v>
@@ -11853,7 +11798,7 @@
       </c>
       <c r="E440" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="441">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="441">
       <c r="A441" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/language(s)_")</f>
         <v>http://dbpedia.org/property/language(s)_</v>
@@ -11868,7 +11813,7 @@
       </c>
       <c r="E441" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="442">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="442">
       <c r="A442" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origlanguage")</f>
         <v>http://dbpedia.org/property/origlanguage</v>
@@ -11883,7 +11828,7 @@
       </c>
       <c r="E442" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="443">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="443">
       <c r="A443" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origLang")</f>
         <v>http://dbpedia.org/property/origLang</v>
@@ -11898,7 +11843,7 @@
       </c>
       <c r="E443" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="444">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="444">
       <c r="A444" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/lang")</f>
         <v>http://dbpedia.org/property/lang</v>
@@ -11913,7 +11858,7 @@
       </c>
       <c r="E444" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="445">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="445">
       <c r="A445" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/originalLanguage")</f>
         <v>http://dbpedia.org/ontology/originalLanguage</v>
@@ -11928,7 +11873,7 @@
       </c>
       <c r="E445" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="446">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="446">
       <c r="A446" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/originalLanguage")</f>
         <v>http://dbpedia.org/property/originalLanguage</v>
@@ -11943,7 +11888,7 @@
       </c>
       <c r="E446" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="448">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="448">
       <c r="A448" s="2" t="n">
         <v>2129711824</v>
       </c>
@@ -11957,7 +11902,7 @@
       <c r="D448" s="4"/>
       <c r="E448" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="449">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="449">
       <c r="A449" s="6" t="s">
         <v>920</v>
       </c>
@@ -11974,7 +11919,7 @@
         <v>924</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="450">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="450">
       <c r="A450" s="6" t="s">
         <v>925</v>
       </c>
@@ -11991,7 +11936,7 @@
         <v>929</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="451">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="451">
       <c r="A451" s="6" t="s">
         <v>930</v>
       </c>
@@ -12008,7 +11953,7 @@
         <v>934</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="452">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="452">
       <c r="A452" s="6" t="s">
         <v>935</v>
       </c>
@@ -12025,7 +11970,7 @@
         <v>939</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="453">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="453">
       <c r="A453" s="6" t="s">
         <v>940</v>
       </c>
@@ -12042,7 +11987,7 @@
         <v>944</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="454">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="454">
       <c r="A454" s="6" t="s">
         <v>945</v>
       </c>
@@ -12059,7 +12004,7 @@
         <v>949</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="455">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="455">
       <c r="A455" s="6" t="s">
         <v>950</v>
       </c>
@@ -12076,7 +12021,7 @@
         <v>954</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="456">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="456">
       <c r="A456" s="6" t="s">
         <v>955</v>
       </c>
@@ -12093,7 +12038,7 @@
         <v>959</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="457">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="457">
       <c r="A457" s="6" t="s">
         <v>960</v>
       </c>
@@ -12110,7 +12055,7 @@
         <v>964</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="458">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="458">
       <c r="A458" s="6" t="s">
         <v>965</v>
       </c>
@@ -12123,7 +12068,7 @@
       <c r="D458" s="9"/>
       <c r="E458" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="459">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="459">
       <c r="A459" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/author")</f>
         <v>http://dbpedia.org/property/author</v>
@@ -12138,7 +12083,7 @@
       </c>
       <c r="E459" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="460">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="460">
       <c r="A460" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/author")</f>
         <v>http://dbpedia.org/ontology/author</v>
@@ -12153,7 +12098,7 @@
       </c>
       <c r="E460" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="461">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="461">
       <c r="A461" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writer")</f>
         <v>http://dbpedia.org/property/writer</v>
@@ -12168,7 +12113,7 @@
       </c>
       <c r="E461" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="462">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="462">
       <c r="A462" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/writer")</f>
         <v>http://dbpedia.org/ontology/writer</v>
@@ -12183,7 +12128,7 @@
       </c>
       <c r="E462" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="463">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="463">
       <c r="A463" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/creator")</f>
         <v>http://dbpedia.org/ontology/creator</v>
@@ -12198,7 +12143,7 @@
       </c>
       <c r="E463" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="464">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="464">
       <c r="A464" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/creator")</f>
         <v>http://dbpedia.org/property/creator</v>
@@ -12213,7 +12158,7 @@
       </c>
       <c r="E464" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="466">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="466">
       <c r="A466" s="2" t="n">
         <v>1911613041</v>
       </c>
@@ -12227,7 +12172,7 @@
       <c r="D466" s="4"/>
       <c r="E466" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="467">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="467">
       <c r="A467" s="6" t="s">
         <v>704</v>
       </c>
@@ -12244,7 +12189,7 @@
         <v>717</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="468">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="468">
       <c r="A468" s="6" t="s">
         <v>69</v>
       </c>
@@ -12261,7 +12206,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="469">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="469">
       <c r="A469" s="6" t="s">
         <v>89</v>
       </c>
@@ -12278,7 +12223,7 @@
         <v>973</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="470">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="470">
       <c r="A470" s="6" t="s">
         <v>745</v>
       </c>
@@ -12295,7 +12240,7 @@
         <v>751</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="471">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="471">
       <c r="A471" s="6" t="s">
         <v>975</v>
       </c>
@@ -12306,7 +12251,7 @@
       <c r="D471" s="9"/>
       <c r="E471" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="472">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="472">
       <c r="A472" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/foundationPlace")</f>
         <v>http://dbpedia.org/ontology/foundationPlace</v>
@@ -12321,7 +12266,7 @@
       </c>
       <c r="E472" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="473">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="473">
       <c r="A473" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/areaServed")</f>
         <v>http://dbpedia.org/property/areaServed</v>
@@ -12336,7 +12281,7 @@
       </c>
       <c r="E473" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="474">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="474">
       <c r="A474" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/headquarter")</f>
         <v>http://dbpedia.org/ontology/headquarter</v>
@@ -12351,7 +12296,7 @@
       </c>
       <c r="E474" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="475">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="475">
       <c r="A475" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/locationCountry")</f>
         <v>http://dbpedia.org/property/locationCountry</v>
@@ -12366,7 +12311,7 @@
       </c>
       <c r="E475" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="476">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="476">
       <c r="A476" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/location")</f>
         <v>http://dbpedia.org/ontology/location</v>
@@ -12381,7 +12326,7 @@
       </c>
       <c r="E476" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="477">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="477">
       <c r="A477" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -12396,7 +12341,7 @@
       </c>
       <c r="E477" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="478">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="478">
       <c r="A478" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/foundation")</f>
         <v>http://dbpedia.org/property/foundation</v>
@@ -12411,7 +12356,7 @@
       </c>
       <c r="E478" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="479">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="479">
       <c r="A479" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/headquarters")</f>
         <v>http://dbpedia.org/property/headquarters</v>
@@ -12426,7 +12371,7 @@
       </c>
       <c r="E479" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="480">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="480">
       <c r="A480" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/location")</f>
         <v>http://dbpedia.org/property/location</v>
@@ -12441,7 +12386,7 @@
       </c>
       <c r="E480" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="481">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="481">
       <c r="A481" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/locationCountry")</f>
         <v>http://dbpedia.org/ontology/locationCountry</v>
@@ -12456,7 +12401,7 @@
       </c>
       <c r="E481" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="482">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="482">
       <c r="A482" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/locations")</f>
         <v>http://dbpedia.org/property/locations</v>
@@ -12471,7 +12416,7 @@
       </c>
       <c r="E482" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="483">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="483">
       <c r="A483" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -12486,7 +12431,7 @@
       </c>
       <c r="E483" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="484">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="484">
       <c r="A484" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/stateOfOrigin")</f>
         <v>http://dbpedia.org/ontology/stateOfOrigin</v>
@@ -12501,7 +12446,7 @@
       </c>
       <c r="E484" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="485">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="485">
       <c r="A485" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/serviceArea")</f>
         <v>http://dbpedia.org/property/serviceArea</v>
@@ -12516,7 +12461,7 @@
       </c>
       <c r="E485" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="486">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="486">
       <c r="A486" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/storeLocations")</f>
         <v>http://dbpedia.org/property/storeLocations</v>
@@ -12531,7 +12476,7 @@
       </c>
       <c r="E486" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="487">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="487">
       <c r="A487" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/headquarter")</f>
         <v>http://dbpedia.org/property/headquarter</v>
@@ -12546,7 +12491,7 @@
       </c>
       <c r="E487" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="488">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="488">
       <c r="A488" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/locationCountries")</f>
         <v>http://dbpedia.org/property/locationCountries</v>
@@ -12561,7 +12506,7 @@
       </c>
       <c r="E488" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="489">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="489">
       <c r="A489" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/locationCounty")</f>
         <v>http://dbpedia.org/property/locationCounty</v>
@@ -12576,7 +12521,7 @@
       </c>
       <c r="E489" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="490">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="490">
       <c r="A490" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/countryOfOrigin")</f>
         <v>http://dbpedia.org/property/countryOfOrigin</v>
@@ -12591,7 +12536,7 @@
       </c>
       <c r="E490" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="491">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="491">
       <c r="A491" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/nationalOrigin")</f>
         <v>http://dbpedia.org/property/nationalOrigin</v>
@@ -12606,7 +12551,7 @@
       </c>
       <c r="E491" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="493">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="493">
       <c r="A493" s="2" t="n">
         <v>618003832</v>
       </c>
@@ -12620,7 +12565,7 @@
       <c r="D493" s="4"/>
       <c r="E493" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="494">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="494">
       <c r="A494" s="6" t="s">
         <v>988</v>
       </c>
@@ -12637,7 +12582,7 @@
         <v>992</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="495">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="495">
       <c r="A495" s="6" t="s">
         <v>993</v>
       </c>
@@ -12654,7 +12599,7 @@
         <v>997</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="496">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="496">
       <c r="A496" s="6" t="s">
         <v>998</v>
       </c>
@@ -12671,7 +12616,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="497">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="497">
       <c r="A497" s="6" t="s">
         <v>1003</v>
       </c>
@@ -12688,7 +12633,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="498">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="498">
       <c r="A498" s="6" t="s">
         <v>1008</v>
       </c>
@@ -12705,7 +12650,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="499">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="499">
       <c r="A499" s="6" t="s">
         <v>1013</v>
       </c>
@@ -12722,7 +12667,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="500">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="500">
       <c r="A500" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/products")</f>
         <v>http://dbpedia.org/property/products</v>
@@ -12737,7 +12682,7 @@
       </c>
       <c r="E500" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="501">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="501">
       <c r="A501" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/industry")</f>
         <v>http://dbpedia.org/property/industry</v>
@@ -12752,7 +12697,7 @@
       </c>
       <c r="E501" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="502">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="502">
       <c r="A502" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/industry")</f>
         <v>http://dbpedia.org/ontology/industry</v>
@@ -12767,7 +12712,7 @@
       </c>
       <c r="E502" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="503">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="503">
       <c r="A503" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/product")</f>
         <v>http://dbpedia.org/ontology/product</v>
@@ -12782,7 +12727,7 @@
       </c>
       <c r="E503" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="504">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="504">
       <c r="A504" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/services")</f>
         <v>http://dbpedia.org/property/services</v>
@@ -12797,7 +12742,7 @@
       </c>
       <c r="E504" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="505">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="505">
       <c r="A505" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/service")</f>
         <v>http://dbpedia.org/ontology/service</v>
@@ -12812,7 +12757,7 @@
       </c>
       <c r="E505" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="506">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="506">
       <c r="A506" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/companyType")</f>
         <v>http://dbpedia.org/property/companyType</v>
@@ -12827,7 +12772,7 @@
       </c>
       <c r="E506" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="507">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="507">
       <c r="A507" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/industries")</f>
         <v>http://dbpedia.org/property/industries</v>
@@ -12842,7 +12787,7 @@
       </c>
       <c r="E507" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="509">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="509">
       <c r="A509" s="2" t="n">
         <v>2122702641</v>
       </c>
@@ -12856,7 +12801,7 @@
       <c r="D509" s="4"/>
       <c r="E509" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="510">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="510">
       <c r="A510" s="6" t="s">
         <v>1026</v>
       </c>
@@ -12873,7 +12818,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="511">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="511">
       <c r="A511" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/party")</f>
         <v>http://dbpedia.org/property/party</v>
@@ -12888,7 +12833,7 @@
       </c>
       <c r="E511" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="512">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="512">
       <c r="A512" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/party")</f>
         <v>http://dbpedia.org/ontology/party</v>
@@ -12903,7 +12848,7 @@
       </c>
       <c r="E512" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="513">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="513">
       <c r="A513" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/otherParty")</f>
         <v>http://dbpedia.org/ontology/otherParty</v>
@@ -12918,7 +12863,7 @@
       </c>
       <c r="E513" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="514">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="514">
       <c r="A514" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/afterParty")</f>
         <v>http://dbpedia.org/property/afterParty</v>
@@ -12933,7 +12878,7 @@
       </c>
       <c r="E514" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="515">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="515">
       <c r="A515" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalGroups")</f>
         <v>http://dbpedia.org/property/politicalGroups</v>
@@ -12948,7 +12893,7 @@
       </c>
       <c r="E515" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="516">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="516">
       <c r="A516" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/politicalPartyInLegislature")</f>
         <v>http://dbpedia.org/ontology/politicalPartyInLegislature</v>
@@ -12963,7 +12908,7 @@
       </c>
       <c r="E516" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="517">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="517">
       <c r="A517" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/politicalPartyOfLeader")</f>
         <v>http://dbpedia.org/ontology/politicalPartyOfLeader</v>
@@ -12978,7 +12923,7 @@
       </c>
       <c r="E517" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="518">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="518">
       <c r="A518" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/loser")</f>
         <v>http://dbpedia.org/property/loser</v>
@@ -12993,7 +12938,7 @@
       </c>
       <c r="E518" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="519">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="519">
       <c r="A519" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalParty")</f>
         <v>http://dbpedia.org/property/politicalParty</v>
@@ -13008,7 +12953,7 @@
       </c>
       <c r="E519" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="520">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="520">
       <c r="A520" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/winner")</f>
         <v>http://dbpedia.org/property/winner</v>
@@ -13023,7 +12968,7 @@
       </c>
       <c r="E520" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="521">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="521">
       <c r="A521" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/leaderParty")</f>
         <v>http://dbpedia.org/ontology/leaderParty</v>
@@ -13038,7 +12983,7 @@
       </c>
       <c r="E521" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="522">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="522">
       <c r="A522" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/legislature")</f>
         <v>http://dbpedia.org/property/legislature</v>
@@ -13053,7 +12998,7 @@
       </c>
       <c r="E522" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="523">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="523">
       <c r="A523" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/leaderParty")</f>
         <v>http://dbpedia.org/property/leaderParty</v>
@@ -13068,7 +13013,7 @@
       </c>
       <c r="E523" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="524">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="524">
       <c r="A524" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/oppositionParty")</f>
         <v>http://dbpedia.org/property/oppositionParty</v>
@@ -13083,7 +13028,7 @@
       </c>
       <c r="E524" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="525">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="525">
       <c r="A525" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalView")</f>
         <v>http://dbpedia.org/property/politicalView</v>
@@ -13098,7 +13043,7 @@
       </c>
       <c r="E525" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="527">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="527">
       <c r="A527" s="2" t="n">
         <v>1973672910</v>
       </c>
@@ -13112,7 +13057,7 @@
       <c r="D527" s="4"/>
       <c r="E527" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="528">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="528">
       <c r="A528" s="6" t="n">
         <v>1824</v>
       </c>
@@ -13129,7 +13074,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="529">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="529">
       <c r="A529" s="6" t="n">
         <v>1840</v>
       </c>
@@ -13146,7 +13091,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="530">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="530">
       <c r="A530" s="6" t="n">
         <v>1860</v>
       </c>
@@ -13163,7 +13108,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="531">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="531">
       <c r="A531" s="6" t="n">
         <v>1876</v>
       </c>
@@ -13180,7 +13125,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="532">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="532">
       <c r="A532" s="6" t="n">
         <v>1896</v>
       </c>
@@ -13197,7 +13142,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="533">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="533">
       <c r="A533" s="6" t="n">
         <v>1912</v>
       </c>
@@ -13214,7 +13159,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="534">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="534">
       <c r="A534" s="6" t="n">
         <v>1932</v>
       </c>
@@ -13231,7 +13176,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="535">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="535">
       <c r="A535" s="6" t="n">
         <v>1800</v>
       </c>
@@ -13248,7 +13193,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="536">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="536">
       <c r="A536" s="6" t="n">
         <v>1968</v>
       </c>
@@ -13265,7 +13210,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="537">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="537">
       <c r="A537" s="6" t="n">
         <v>1988</v>
       </c>
@@ -13282,7 +13227,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="538">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="538">
       <c r="A538" s="6" t="n">
         <v>2004</v>
       </c>
@@ -13299,7 +13244,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="539">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="539">
       <c r="A539" s="6" t="n">
         <v>1816</v>
       </c>
@@ -13310,7 +13255,7 @@
       <c r="D539" s="9"/>
       <c r="E539" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="540">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="540">
       <c r="A540" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/years")</f>
         <v>http://dbpedia.org/property/years</v>
@@ -13325,7 +13270,7 @@
       </c>
       <c r="E540" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="541">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="541">
       <c r="A541" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/formationYear")</f>
         <v>http://dbpedia.org/ontology/formationYear</v>
@@ -13340,7 +13285,7 @@
       </c>
       <c r="E541" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="542">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="542">
       <c r="A542" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsEndDate")</f>
         <v>http://dbpedia.org/ontology/activeYearsEndDate</v>
@@ -13355,7 +13300,7 @@
       </c>
       <c r="E542" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="543">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="543">
       <c r="A543" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/formed")</f>
         <v>http://dbpedia.org/property/formed</v>
@@ -13370,7 +13315,7 @@
       </c>
       <c r="E543" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="544">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="544">
       <c r="A544" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsStartDate")</f>
         <v>http://dbpedia.org/ontology/activeYearsStartDate</v>
@@ -13385,7 +13330,7 @@
       </c>
       <c r="E544" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="545">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="545">
       <c r="A545" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/formation")</f>
         <v>http://dbpedia.org/property/formation</v>
@@ -13400,7 +13345,7 @@
       </c>
       <c r="E545" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="546">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="546">
       <c r="A546" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/formationDate")</f>
         <v>http://dbpedia.org/ontology/formationDate</v>
@@ -13415,7 +13360,7 @@
       </c>
       <c r="E546" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="547">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="547">
       <c r="A547" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/established")</f>
         <v>http://dbpedia.org/property/established</v>
@@ -13430,7 +13375,7 @@
       </c>
       <c r="E547" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="548">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="548">
       <c r="A548" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/startDate")</f>
         <v>http://dbpedia.org/property/startDate</v>
@@ -13445,7 +13390,7 @@
       </c>
       <c r="E548" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="549">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="549">
       <c r="A549" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/formedyear")</f>
         <v>http://dbpedia.org/property/formedyear</v>
@@ -13460,7 +13405,7 @@
       </c>
       <c r="E549" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="550">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="550">
       <c r="A550" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -13475,7 +13420,7 @@
       </c>
       <c r="E550" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="551">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="551">
       <c r="A551" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsStartYear")</f>
         <v>http://dbpedia.org/ontology/activeYearsStartYear</v>
@@ -13490,7 +13435,7 @@
       </c>
       <c r="E551" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="552">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="552">
       <c r="A552" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/start")</f>
         <v>http://dbpedia.org/property/start</v>
@@ -13505,7 +13450,7 @@
       </c>
       <c r="E552" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="553">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="553">
       <c r="A553" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/establishedDate")</f>
         <v>http://dbpedia.org/property/establishedDate</v>
@@ -13520,7 +13465,7 @@
       </c>
       <c r="E553" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="554">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="554">
       <c r="A554" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/yearEnd")</f>
         <v>http://dbpedia.org/property/yearEnd</v>
@@ -13535,7 +13480,7 @@
       </c>
       <c r="E554" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="555">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="555">
       <c r="A555" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/activeYearsEndYear")</f>
         <v>http://dbpedia.org/ontology/activeYearsEndYear</v>
@@ -13550,7 +13495,7 @@
       </c>
       <c r="E555" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="556">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="556">
       <c r="A556" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/yearStart")</f>
         <v>http://dbpedia.org/property/yearStart</v>
@@ -13565,7 +13510,7 @@
       </c>
       <c r="E556" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="557">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="557">
       <c r="A557" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/dissolutionYear")</f>
         <v>http://dbpedia.org/ontology/dissolutionYear</v>
@@ -13580,7 +13525,7 @@
       </c>
       <c r="E557" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="558">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="558">
       <c r="A558" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/statYear")</f>
         <v>http://dbpedia.org/property/statYear</v>
@@ -13595,7 +13540,7 @@
       </c>
       <c r="E558" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="559">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="559">
       <c r="A559" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/dissolutionDate")</f>
         <v>http://dbpedia.org/ontology/dissolutionDate</v>
@@ -13610,7 +13555,7 @@
       </c>
       <c r="E559" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="560">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="560">
       <c r="A560" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/lastElection")</f>
         <v>http://dbpedia.org/property/lastElection</v>
@@ -13625,7 +13570,7 @@
       </c>
       <c r="E560" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="561">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="561">
       <c r="A561" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/lastElectionDate")</f>
         <v>http://dbpedia.org/ontology/lastElectionDate</v>
@@ -13640,7 +13585,7 @@
       </c>
       <c r="E561" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="563">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="563">
       <c r="A563" s="2" t="n">
         <v>148489175</v>
       </c>
@@ -13654,7 +13599,7 @@
       <c r="D563" s="4"/>
       <c r="E563" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="564">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="564">
       <c r="A564" s="6" t="s">
         <v>1060</v>
       </c>
@@ -13671,7 +13616,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="565">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="565">
       <c r="A565" s="6" t="s">
         <v>1065</v>
       </c>
@@ -13688,7 +13633,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="566">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="566">
       <c r="A566" s="6" t="s">
         <v>1070</v>
       </c>
@@ -13705,7 +13650,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="567">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="567">
       <c r="A567" s="6" t="s">
         <v>1075</v>
       </c>
@@ -13722,7 +13667,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="568">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="568">
       <c r="A568" s="6" t="s">
         <v>1080</v>
       </c>
@@ -13739,7 +13684,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="569">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="569">
       <c r="A569" s="6" t="s">
         <v>1085</v>
       </c>
@@ -13756,7 +13701,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="570">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="570">
       <c r="A570" s="6" t="s">
         <v>1090</v>
       </c>
@@ -13773,7 +13718,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="571">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="571">
       <c r="A571" s="6" t="s">
         <v>1095</v>
       </c>
@@ -13790,7 +13735,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="572">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="572">
       <c r="A572" s="6" t="s">
         <v>1100</v>
       </c>
@@ -13803,7 +13748,7 @@
       <c r="D572" s="9"/>
       <c r="E572" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="573">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="573">
       <c r="A573" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/signedpresident")</f>
         <v>http://dbpedia.org/property/signedpresident</v>
@@ -13818,7 +13763,7 @@
       </c>
       <c r="E573" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="574">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="574">
       <c r="A574" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/president")</f>
         <v>http://dbpedia.org/property/president</v>
@@ -13833,7 +13778,7 @@
       </c>
       <c r="E574" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="575">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="575">
       <c r="A575" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/president")</f>
         <v>http://dbpedia.org/ontology/president</v>
@@ -13848,7 +13793,7 @@
       </c>
       <c r="E575" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="576">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="576">
       <c r="A576" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/successor")</f>
         <v>http://dbpedia.org/ontology/successor</v>
@@ -13863,7 +13808,7 @@
       </c>
       <c r="E576" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="577">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="577">
       <c r="A577" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/successor")</f>
         <v>http://dbpedia.org/property/successor</v>
@@ -13878,7 +13823,7 @@
       </c>
       <c r="E577" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="579">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="579">
       <c r="A579" s="2" t="n">
         <v>1668711967</v>
       </c>
@@ -13892,7 +13837,7 @@
       <c r="D579" s="4"/>
       <c r="E579" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="580">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="580">
       <c r="A580" s="6" t="s">
         <v>1106</v>
       </c>
@@ -13909,7 +13854,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="581">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="581">
       <c r="A581" s="6" t="s">
         <v>1111</v>
       </c>
@@ -13926,7 +13871,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="582">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="582">
       <c r="A582" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/party")</f>
         <v>http://dbpedia.org/property/party</v>
@@ -13941,7 +13886,7 @@
       </c>
       <c r="E582" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="583">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="583">
       <c r="A583" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/party")</f>
         <v>http://dbpedia.org/ontology/party</v>
@@ -13956,7 +13901,7 @@
       </c>
       <c r="E583" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="584">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="584">
       <c r="A584" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/oppositionParty")</f>
         <v>http://dbpedia.org/property/oppositionParty</v>
@@ -13971,7 +13916,7 @@
       </c>
       <c r="E584" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="585">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="585">
       <c r="A585" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalGroups")</f>
         <v>http://dbpedia.org/property/politicalGroups</v>
@@ -13986,7 +13931,7 @@
       </c>
       <c r="E585" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="586">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="586">
       <c r="A586" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/otherParty")</f>
         <v>http://dbpedia.org/ontology/otherParty</v>
@@ -14001,7 +13946,7 @@
       </c>
       <c r="E586" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="587">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="587">
       <c r="A587" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/politicalPartyInLegislature")</f>
         <v>http://dbpedia.org/ontology/politicalPartyInLegislature</v>
@@ -14016,7 +13961,7 @@
       </c>
       <c r="E587" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="588">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="588">
       <c r="A588" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/otherparty")</f>
         <v>http://dbpedia.org/property/otherparty</v>
@@ -14031,7 +13976,7 @@
       </c>
       <c r="E588" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="589">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="589">
       <c r="A589" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalParty")</f>
         <v>http://dbpedia.org/property/politicalParty</v>
@@ -14046,7 +13991,7 @@
       </c>
       <c r="E589" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="590">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="590">
       <c r="A590" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/politicalPartyOfLeader")</f>
         <v>http://dbpedia.org/ontology/politicalPartyOfLeader</v>
@@ -14061,7 +14006,7 @@
       </c>
       <c r="E590" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="591">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="591">
       <c r="A591" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/opponents")</f>
         <v>http://dbpedia.org/property/opponents</v>
@@ -14076,7 +14021,7 @@
       </c>
       <c r="E591" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="592">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="592">
       <c r="A592" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ideology")</f>
         <v>http://dbpedia.org/property/ideology</v>
@@ -14091,7 +14036,7 @@
       </c>
       <c r="E592" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="593">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="593">
       <c r="A593" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/leader")</f>
         <v>http://dbpedia.org/ontology/leader</v>
@@ -14106,7 +14051,7 @@
       </c>
       <c r="E593" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="594">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="594">
       <c r="A594" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/leaderParty")</f>
         <v>http://dbpedia.org/property/leaderParty</v>
@@ -14121,7 +14066,7 @@
       </c>
       <c r="E594" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="595">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="595">
       <c r="A595" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/winner")</f>
         <v>http://dbpedia.org/property/winner</v>
@@ -14136,7 +14081,7 @@
       </c>
       <c r="E595" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="596">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="596">
       <c r="A596" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/president")</f>
         <v>http://dbpedia.org/ontology/president</v>
@@ -14151,7 +14096,7 @@
       </c>
       <c r="E596" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="597">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="597">
       <c r="A597" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/leaderParty")</f>
         <v>http://dbpedia.org/ontology/leaderParty</v>
@@ -14166,7 +14111,7 @@
       </c>
       <c r="E597" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="598">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="598">
       <c r="A598" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/minister")</f>
         <v>http://dbpedia.org/property/minister</v>
@@ -14181,7 +14126,7 @@
       </c>
       <c r="E598" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="599">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="599">
       <c r="A599" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/2ndparty")</f>
         <v>http://dbpedia.org/property/2ndparty</v>
@@ -14196,7 +14141,7 @@
       </c>
       <c r="E599" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="600">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="600">
       <c r="A600" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/government")</f>
         <v>http://dbpedia.org/property/government</v>
@@ -14211,7 +14156,7 @@
       </c>
       <c r="E600" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="601">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="601">
       <c r="A601" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/governmentType")</f>
         <v>http://dbpedia.org/property/governmentType</v>
@@ -14226,7 +14171,7 @@
       </c>
       <c r="E601" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="602">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="602">
       <c r="A602" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/partyName")</f>
         <v>http://dbpedia.org/property/partyName</v>
@@ -14241,7 +14186,7 @@
       </c>
       <c r="E602" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="604">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="604">
       <c r="A604" s="2" t="n">
         <v>1976585275</v>
       </c>
@@ -14255,7 +14200,7 @@
       <c r="D604" s="4"/>
       <c r="E604" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="605">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="605">
       <c r="A605" s="6" t="s">
         <v>1124</v>
       </c>
@@ -14272,7 +14217,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="606">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="606">
       <c r="A606" s="6" t="s">
         <v>1129</v>
       </c>
@@ -14289,7 +14234,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="607">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="607">
       <c r="A607" s="6" t="s">
         <v>1134</v>
       </c>
@@ -14306,7 +14251,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="608">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="608">
       <c r="A608" s="6" t="s">
         <v>1139</v>
       </c>
@@ -14323,7 +14268,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="609">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="609">
       <c r="A609" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14340,7 +14285,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="610">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="610">
       <c r="A610" s="6" t="s">
         <v>1149</v>
       </c>
@@ -14357,7 +14302,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="611">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="611">
       <c r="A611" s="6" t="s">
         <v>1154</v>
       </c>
@@ -14374,7 +14319,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="612">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="612">
       <c r="A612" s="6" t="s">
         <v>1159</v>
       </c>
@@ -14391,7 +14336,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="613">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="613">
       <c r="A613" s="6" t="s">
         <v>1164</v>
       </c>
@@ -14408,7 +14353,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="614">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="614">
       <c r="A614" s="6" t="s">
         <v>1169</v>
       </c>
@@ -14425,7 +14370,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="615">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="615">
       <c r="A615" s="6" t="s">
         <v>1174</v>
       </c>
@@ -14442,7 +14387,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="616">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="616">
       <c r="A616" s="6" t="s">
         <v>1179</v>
       </c>
@@ -14457,7 +14402,7 @@
       </c>
       <c r="E616" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="617">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="617">
       <c r="A617" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/successor")</f>
         <v>http://dbpedia.org/ontology/successor</v>
@@ -14472,7 +14417,7 @@
       </c>
       <c r="E617" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="618">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="618">
       <c r="A618" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/successor")</f>
         <v>http://dbpedia.org/property/successor</v>
@@ -14487,7 +14432,7 @@
       </c>
       <c r="E618" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="619">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="619">
       <c r="A619" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/predecessor")</f>
         <v>http://dbpedia.org/property/predecessor</v>
@@ -14502,7 +14447,7 @@
       </c>
       <c r="E619" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="620">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="620">
       <c r="A620" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/primeminister")</f>
         <v>http://dbpedia.org/property/primeminister</v>
@@ -14517,7 +14462,7 @@
       </c>
       <c r="E620" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="621">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="621">
       <c r="A621" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/primeMinister")</f>
         <v>http://dbpedia.org/ontology/primeMinister</v>
@@ -14532,7 +14477,7 @@
       </c>
       <c r="E621" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="622">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="622">
       <c r="A622" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/chairperson")</f>
         <v>http://dbpedia.org/property/chairperson</v>
@@ -14547,7 +14492,7 @@
       </c>
       <c r="E622" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="624">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="624">
       <c r="A624" s="2" t="n">
         <v>110809049</v>
       </c>
@@ -14561,7 +14506,7 @@
       <c r="D624" s="4"/>
       <c r="E624" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="625">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="625">
       <c r="A625" s="6" t="s">
         <v>1187</v>
       </c>
@@ -14578,7 +14523,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="626">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="626">
       <c r="A626" s="6" t="s">
         <v>1192</v>
       </c>
@@ -14595,7 +14540,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="627">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="627">
       <c r="A627" s="6" t="s">
         <v>1197</v>
       </c>
@@ -14612,7 +14557,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="628">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="628">
       <c r="A628" s="6" t="s">
         <v>1202</v>
       </c>
@@ -14629,7 +14574,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="629">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="629">
       <c r="A629" s="6" t="s">
         <v>1207</v>
       </c>
@@ -14646,7 +14591,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="630">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="630">
       <c r="A630" s="6" t="s">
         <v>1212</v>
       </c>
@@ -14663,7 +14608,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="631">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="631">
       <c r="A631" s="6" t="s">
         <v>1217</v>
       </c>
@@ -14680,7 +14625,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="632">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="632">
       <c r="A632" s="6" t="s">
         <v>1222</v>
       </c>
@@ -14697,7 +14642,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="633">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="633">
       <c r="A633" s="6" t="s">
         <v>1227</v>
       </c>
@@ -14714,7 +14659,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="634">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="634">
       <c r="A634" s="6" t="s">
         <v>1232</v>
       </c>
@@ -14731,7 +14676,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="635">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="635">
       <c r="A635" s="6" t="s">
         <v>1237</v>
       </c>
@@ -14748,7 +14693,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="636">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="636">
       <c r="A636" s="6" t="s">
         <v>1242</v>
       </c>
@@ -14765,7 +14710,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="637">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="637">
       <c r="A637" s="6" t="s">
         <v>1247</v>
       </c>
@@ -14782,7 +14727,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="638">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="638">
       <c r="A638" s="6" t="s">
         <v>1252</v>
       </c>
@@ -14799,7 +14744,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="639">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="639">
       <c r="A639" s="6" t="s">
         <v>1257</v>
       </c>
@@ -14816,7 +14761,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="640">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="640">
       <c r="A640" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/starring")</f>
         <v>http://dbpedia.org/property/starring</v>
@@ -14831,7 +14776,7 @@
       </c>
       <c r="E640" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="641">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="641">
       <c r="A641" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/starring")</f>
         <v>http://dbpedia.org/ontology/starring</v>
@@ -14846,7 +14791,7 @@
       </c>
       <c r="E641" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="643">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="643">
       <c r="A643" s="2" t="n">
         <v>654605541</v>
       </c>
@@ -14860,7 +14805,7 @@
       <c r="D643" s="4"/>
       <c r="E643" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="644">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="644">
       <c r="A644" s="6" t="n">
         <v>1915</v>
       </c>
@@ -14877,7 +14822,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="645">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="645">
       <c r="A645" s="6" t="n">
         <v>1930</v>
       </c>
@@ -14894,7 +14839,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="646">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="646">
       <c r="A646" s="6" t="n">
         <v>1936</v>
       </c>
@@ -14911,7 +14856,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="647">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="647">
       <c r="A647" s="6" t="n">
         <v>1941</v>
       </c>
@@ -14928,7 +14873,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="648">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="648">
       <c r="A648" s="6" t="n">
         <v>1949</v>
       </c>
@@ -14945,7 +14890,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="649">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="649">
       <c r="A649" s="6" t="n">
         <v>1954</v>
       </c>
@@ -14962,7 +14907,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="650">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="650">
       <c r="A650" s="6" t="n">
         <v>1959</v>
       </c>
@@ -14979,7 +14924,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="651">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="651">
       <c r="A651" s="6" t="n">
         <v>1965</v>
       </c>
@@ -14996,7 +14941,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="652">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="652">
       <c r="A652" s="6" t="n">
         <v>1970</v>
       </c>
@@ -15013,7 +14958,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="653">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="653">
       <c r="A653" s="6" t="n">
         <v>1975</v>
       </c>
@@ -15030,7 +14975,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="654">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="654">
       <c r="A654" s="6" t="n">
         <v>1980</v>
       </c>
@@ -15047,7 +14992,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="655">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="655">
       <c r="A655" s="6" t="n">
         <v>1989</v>
       </c>
@@ -15064,7 +15009,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="656">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="656">
       <c r="A656" s="6" t="n">
         <v>1994</v>
       </c>
@@ -15081,7 +15026,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="657">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="657">
       <c r="A657" s="6" t="n">
         <v>1999</v>
       </c>
@@ -15092,7 +15037,7 @@
       <c r="D657" s="9"/>
       <c r="E657" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="658">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="658">
       <c r="A658" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/released")</f>
         <v>http://dbpedia.org/property/released</v>
@@ -15107,7 +15052,7 @@
       </c>
       <c r="E658" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="659">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="659">
       <c r="A659" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/releaseDate")</f>
         <v>http://dbpedia.org/ontology/releaseDate</v>
@@ -15122,7 +15067,7 @@
       </c>
       <c r="E659" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="660">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="660">
       <c r="A660" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/years")</f>
         <v>http://dbpedia.org/property/years</v>
@@ -15137,7 +15082,7 @@
       </c>
       <c r="E660" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="661">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="661">
       <c r="A661" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/recorded")</f>
         <v>http://dbpedia.org/property/recorded</v>
@@ -15152,7 +15097,7 @@
       </c>
       <c r="E661" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="662">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="662">
       <c r="A662" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstAired")</f>
         <v>http://dbpedia.org/property/firstAired</v>
@@ -15167,7 +15112,7 @@
       </c>
       <c r="E662" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="663">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="663">
       <c r="A663" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/releaseDate")</f>
         <v>http://dbpedia.org/property/releaseDate</v>
@@ -15182,7 +15127,7 @@
       </c>
       <c r="E663" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="664">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="664">
       <c r="A664" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -15197,7 +15142,7 @@
       </c>
       <c r="E664" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="665">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="665">
       <c r="A665" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/release")</f>
         <v>http://dbpedia.org/property/release</v>
@@ -15212,7 +15157,7 @@
       </c>
       <c r="E665" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="666">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="666">
       <c r="A666" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/lastAired")</f>
         <v>http://dbpedia.org/property/lastAired</v>
@@ -15227,7 +15172,7 @@
       </c>
       <c r="E666" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="667">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="667">
       <c r="A667" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/originalairdate")</f>
         <v>http://dbpedia.org/property/originalairdate</v>
@@ -15242,7 +15187,7 @@
       </c>
       <c r="E667" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="668">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="668">
       <c r="A668" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/firstAirDate")</f>
         <v>http://dbpedia.org/ontology/firstAirDate</v>
@@ -15257,7 +15202,7 @@
       </c>
       <c r="E668" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="669">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="669">
       <c r="A669" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/completionDate")</f>
         <v>http://dbpedia.org/property/completionDate</v>
@@ -15272,7 +15217,7 @@
       </c>
       <c r="E669" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="670">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="670">
       <c r="A670" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/completionDate")</f>
         <v>http://dbpedia.org/ontology/completionDate</v>
@@ -15287,7 +15232,7 @@
       </c>
       <c r="E670" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="672">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="672">
       <c r="A672" s="2" t="n">
         <v>1011013747</v>
       </c>
@@ -15301,7 +15246,7 @@
       <c r="D672" s="4"/>
       <c r="E672" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="673">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="673">
       <c r="A673" s="6" t="s">
         <v>1269</v>
       </c>
@@ -15318,7 +15263,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="674">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="674">
       <c r="A674" s="6" t="s">
         <v>1274</v>
       </c>
@@ -15335,7 +15280,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="675">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="675">
       <c r="A675" s="6" t="s">
         <v>1279</v>
       </c>
@@ -15352,7 +15297,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="676">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="676">
       <c r="A676" s="6" t="s">
         <v>1284</v>
       </c>
@@ -15369,7 +15314,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="677">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="677">
       <c r="A677" s="6" t="s">
         <v>1289</v>
       </c>
@@ -15386,7 +15331,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="678">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="678">
       <c r="A678" s="6" t="s">
         <v>1294</v>
       </c>
@@ -15403,7 +15348,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="679">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="679">
       <c r="A679" s="6" t="s">
         <v>1299</v>
       </c>
@@ -15420,7 +15365,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="680">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="680">
       <c r="A680" s="6" t="s">
         <v>1304</v>
       </c>
@@ -15437,7 +15382,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="681">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="681">
       <c r="A681" s="6" t="s">
         <v>1309</v>
       </c>
@@ -15454,7 +15399,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="682">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="682">
       <c r="A682" s="6" t="s">
         <v>1314</v>
       </c>
@@ -15471,7 +15416,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="683">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="683">
       <c r="A683" s="6" t="s">
         <v>1319</v>
       </c>
@@ -15488,7 +15433,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="684">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="684">
       <c r="A684" s="6" t="s">
         <v>1324</v>
       </c>
@@ -15505,7 +15450,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="685">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="685">
       <c r="A685" s="6" t="s">
         <v>1329</v>
       </c>
@@ -15522,7 +15467,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="686">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="686">
       <c r="A686" s="6" t="s">
         <v>1334</v>
       </c>
@@ -15539,7 +15484,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="687">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="687">
       <c r="A687" s="6" t="s">
         <v>1339</v>
       </c>
@@ -15556,7 +15501,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="688">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="688">
       <c r="A688" s="6" t="s">
         <v>1344</v>
       </c>
@@ -15573,7 +15518,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="689">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="689">
       <c r="A689" s="6" t="s">
         <v>1349</v>
       </c>
@@ -15586,7 +15531,7 @@
       <c r="D689" s="9"/>
       <c r="E689" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="690">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="690">
       <c r="A690" s="11" t="str">
         <f aca="false">HYPERLINK("http://xmlns.com/foaf/0.1/name")</f>
         <v>http://xmlns.com/foaf/0.1/name</v>
@@ -15601,7 +15546,7 @@
       </c>
       <c r="E690" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="691">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="691">
       <c r="A691" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/name")</f>
         <v>http://dbpedia.org/property/name</v>
@@ -15616,7 +15561,7 @@
       </c>
       <c r="E691" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="693">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="693">
       <c r="A693" s="2" t="n">
         <v>1560839038</v>
       </c>
@@ -15630,7 +15575,7 @@
       <c r="D693" s="4"/>
       <c r="E693" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="694">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="694">
       <c r="A694" s="6" t="s">
         <v>1352</v>
       </c>
@@ -15647,7 +15592,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="695">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="695">
       <c r="A695" s="6" t="s">
         <v>1357</v>
       </c>
@@ -15664,7 +15609,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="696">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="696">
       <c r="A696" s="6" t="s">
         <v>1361</v>
       </c>
@@ -15681,7 +15626,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="697">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="697">
       <c r="A697" s="6" t="s">
         <v>1366</v>
       </c>
@@ -15698,7 +15643,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="698">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="698">
       <c r="A698" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/studio")</f>
         <v>http://dbpedia.org/property/studio</v>
@@ -15713,7 +15658,7 @@
       </c>
       <c r="E698" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="699">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="699">
       <c r="A699" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/distributor")</f>
         <v>http://dbpedia.org/property/distributor</v>
@@ -15728,7 +15673,7 @@
       </c>
       <c r="E699" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="700">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="700">
       <c r="A700" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/distributor")</f>
         <v>http://dbpedia.org/ontology/distributor</v>
@@ -15743,7 +15688,7 @@
       </c>
       <c r="E700" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="701">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="701">
       <c r="A701" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/producer")</f>
         <v>http://dbpedia.org/property/producer</v>
@@ -15758,7 +15703,7 @@
       </c>
       <c r="E701" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="702">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="702">
       <c r="A702" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/producer")</f>
         <v>http://dbpedia.org/ontology/producer</v>
@@ -15773,7 +15718,7 @@
       </c>
       <c r="E702" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="703">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="703">
       <c r="A703" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/productionCompany")</f>
         <v>http://dbpedia.org/property/productionCompany</v>
@@ -15788,7 +15733,7 @@
       </c>
       <c r="E703" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="704">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="704">
       <c r="A704" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/distributedBy")</f>
         <v>http://dbpedia.org/property/distributedBy</v>
@@ -15803,7 +15748,7 @@
       </c>
       <c r="E704" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="705">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="705">
       <c r="A705" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/owningCompany")</f>
         <v>http://dbpedia.org/ontology/owningCompany</v>
@@ -15818,7 +15763,7 @@
       </c>
       <c r="E705" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="706">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="706">
       <c r="A706" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/owner")</f>
         <v>http://dbpedia.org/property/owner</v>
@@ -15833,7 +15778,7 @@
       </c>
       <c r="E706" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="707">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="707">
       <c r="A707" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/distributors")</f>
         <v>http://dbpedia.org/property/distributors</v>
@@ -15848,7 +15793,7 @@
       </c>
       <c r="E707" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="709">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="709">
       <c r="A709" s="2" t="n">
         <v>1888395491</v>
       </c>
@@ -15862,7 +15807,7 @@
       <c r="D709" s="4"/>
       <c r="E709" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="710">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="710">
       <c r="A710" s="6" t="s">
         <v>1379</v>
       </c>
@@ -15879,7 +15824,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="711">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="711">
       <c r="A711" s="6" t="s">
         <v>1384</v>
       </c>
@@ -15896,7 +15841,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="712">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="712">
       <c r="A712" s="6" t="s">
         <v>1388</v>
       </c>
@@ -15907,7 +15852,7 @@
       <c r="D712" s="9"/>
       <c r="E712" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="713">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="713">
       <c r="A713" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writer")</f>
         <v>http://dbpedia.org/property/writer</v>
@@ -15922,7 +15867,7 @@
       </c>
       <c r="E713" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="714">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="714">
       <c r="A714" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/director")</f>
         <v>http://dbpedia.org/property/director</v>
@@ -15937,7 +15882,7 @@
       </c>
       <c r="E714" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="715">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="715">
       <c r="A715" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/director")</f>
         <v>http://dbpedia.org/ontology/director</v>
@@ -15952,7 +15897,7 @@
       </c>
       <c r="E715" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="716">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="716">
       <c r="A716" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/writer")</f>
         <v>http://dbpedia.org/ontology/writer</v>
@@ -15967,7 +15912,7 @@
       </c>
       <c r="E716" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="718">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="718">
       <c r="A718" s="2" t="n">
         <v>1802054300</v>
       </c>
@@ -15981,7 +15926,7 @@
       <c r="D718" s="4"/>
       <c r="E718" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="719">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="719">
       <c r="A719" s="6" t="n">
         <v>1967</v>
       </c>
@@ -15998,7 +15943,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="720">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="720">
       <c r="A720" s="6" t="n">
         <v>1984</v>
       </c>
@@ -16015,7 +15960,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="721">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="721">
       <c r="A721" s="6" t="n">
         <v>1993</v>
       </c>
@@ -16032,7 +15977,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="722">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="722">
       <c r="A722" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstdate")</f>
         <v>http://dbpedia.org/property/firstdate</v>
@@ -16047,7 +15992,7 @@
       </c>
       <c r="E722" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="723">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="723">
       <c r="A723" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/year")</f>
         <v>http://dbpedia.org/property/year</v>
@@ -16062,7 +16007,7 @@
       </c>
       <c r="E723" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="724">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="724">
       <c r="A724" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/relyear")</f>
         <v>http://dbpedia.org/property/relyear</v>
@@ -16077,7 +16022,7 @@
       </c>
       <c r="E724" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="725">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="725">
       <c r="A725" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/releaseDate")</f>
         <v>http://dbpedia.org/ontology/releaseDate</v>
@@ -16092,7 +16037,7 @@
       </c>
       <c r="E725" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="726">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="726">
       <c r="A726" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/recordDate")</f>
         <v>http://dbpedia.org/ontology/recordDate</v>
@@ -16107,7 +16052,7 @@
       </c>
       <c r="E726" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="727">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="727">
       <c r="A727" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/recordedIn")</f>
         <v>http://dbpedia.org/ontology/recordedIn</v>
@@ -16122,7 +16067,7 @@
       </c>
       <c r="E727" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="728">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="728">
       <c r="A728" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/released")</f>
         <v>http://dbpedia.org/property/released</v>
@@ -16137,7 +16082,7 @@
       </c>
       <c r="E728" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="729">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="729">
       <c r="A729" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/airdate")</f>
         <v>http://dbpedia.org/property/airdate</v>
@@ -16152,7 +16097,7 @@
       </c>
       <c r="E729" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="730">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="730">
       <c r="A730" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/years")</f>
         <v>http://dbpedia.org/property/years</v>
@@ -16167,7 +16112,7 @@
       </c>
       <c r="E730" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="731">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="731">
       <c r="A731" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/recorded")</f>
         <v>http://dbpedia.org/property/recorded</v>
@@ -16182,7 +16127,7 @@
       </c>
       <c r="E731" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="732">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="732">
       <c r="A732" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstAired")</f>
         <v>http://dbpedia.org/property/firstAired</v>
@@ -16197,7 +16142,7 @@
       </c>
       <c r="E732" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="733">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="733">
       <c r="A733" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/firstAirDate")</f>
         <v>http://dbpedia.org/ontology/firstAirDate</v>
@@ -16212,7 +16157,7 @@
       </c>
       <c r="E733" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="734">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="734">
       <c r="A734" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/completionDate")</f>
         <v>http://dbpedia.org/ontology/completionDate</v>
@@ -16227,7 +16172,7 @@
       </c>
       <c r="E734" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="735">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="735">
       <c r="A735" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/releaseDate")</f>
         <v>http://dbpedia.org/property/releaseDate</v>
@@ -16242,7 +16187,7 @@
       </c>
       <c r="E735" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="736">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="736">
       <c r="A736" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/originalairdate")</f>
         <v>http://dbpedia.org/property/originalairdate</v>
@@ -16257,7 +16202,7 @@
       </c>
       <c r="E736" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="737">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="737">
       <c r="A737" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/pubDate")</f>
         <v>http://dbpedia.org/property/pubDate</v>
@@ -16272,7 +16217,7 @@
       </c>
       <c r="E737" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="738">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="738">
       <c r="A738" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/launch")</f>
         <v>http://dbpedia.org/property/launch</v>
@@ -16287,7 +16232,7 @@
       </c>
       <c r="E738" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="739">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="739">
       <c r="A739" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/publicationDate")</f>
         <v>http://dbpedia.org/ontology/publicationDate</v>
@@ -16302,7 +16247,7 @@
       </c>
       <c r="E739" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="740">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="740">
       <c r="A740" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/release")</f>
         <v>http://dbpedia.org/property/release</v>
@@ -16317,7 +16262,7 @@
       </c>
       <c r="E740" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="741">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="741">
       <c r="A741" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/firstPublicationYear")</f>
         <v>http://dbpedia.org/ontology/firstPublicationYear</v>
@@ -16332,7 +16277,7 @@
       </c>
       <c r="E741" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="742">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="742">
       <c r="A742" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/firstReleaseDate")</f>
         <v>http://dbpedia.org/property/firstReleaseDate</v>
@@ -16347,7 +16292,7 @@
       </c>
       <c r="E742" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="743">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="743">
       <c r="A743" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/latestReleaseVersion")</f>
         <v>http://dbpedia.org/property/latestReleaseVersion</v>
@@ -16362,7 +16307,7 @@
       </c>
       <c r="E743" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="744">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="744">
       <c r="A744" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/latestReleaseVersion")</f>
         <v>http://dbpedia.org/ontology/latestReleaseVersion</v>
@@ -16377,7 +16322,7 @@
       </c>
       <c r="E744" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="746">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="746">
       <c r="A746" s="2" t="n">
         <v>855073163</v>
       </c>
@@ -16391,7 +16336,7 @@
       <c r="D746" s="4"/>
       <c r="E746" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="747">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="747">
       <c r="A747" s="6" t="s">
         <v>1399</v>
       </c>
@@ -16408,7 +16353,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="748">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="748">
       <c r="A748" s="6" t="s">
         <v>1404</v>
       </c>
@@ -16425,7 +16370,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="749">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="749">
       <c r="A749" s="6" t="s">
         <v>1409</v>
       </c>
@@ -16442,7 +16387,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="750">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="750">
       <c r="A750" s="6" t="s">
         <v>1414</v>
       </c>
@@ -16455,7 +16400,7 @@
       <c r="D750" s="9"/>
       <c r="E750" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="751">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="751">
       <c r="A751" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/associatedBand")</f>
         <v>http://dbpedia.org/ontology/associatedBand</v>
@@ -16470,7 +16415,7 @@
       </c>
       <c r="E751" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="752">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="752">
       <c r="A752" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/artist")</f>
         <v>http://dbpedia.org/property/artist</v>
@@ -16485,7 +16430,7 @@
       </c>
       <c r="E752" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="753">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="753">
       <c r="A753" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/artist")</f>
         <v>http://dbpedia.org/ontology/artist</v>
@@ -16500,7 +16445,7 @@
       </c>
       <c r="E753" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="754">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="754">
       <c r="A754" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/associatedMusicalArtist")</f>
         <v>http://dbpedia.org/ontology/associatedMusicalArtist</v>
@@ -16515,7 +16460,7 @@
       </c>
       <c r="E754" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="755">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="755">
       <c r="A755" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicalBand")</f>
         <v>http://dbpedia.org/ontology/musicalBand</v>
@@ -16530,7 +16475,7 @@
       </c>
       <c r="E755" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="756">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="756">
       <c r="A756" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicalArtist")</f>
         <v>http://dbpedia.org/ontology/musicalArtist</v>
@@ -16545,7 +16490,7 @@
       </c>
       <c r="E756" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="757">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="757">
       <c r="A757" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writer")</f>
         <v>http://dbpedia.org/property/writer</v>
@@ -16560,7 +16505,7 @@
       </c>
       <c r="E757" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="758">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="758">
       <c r="A758" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/writer")</f>
         <v>http://dbpedia.org/ontology/writer</v>
@@ -16575,7 +16520,7 @@
       </c>
       <c r="E758" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="759">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="759">
       <c r="A759" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicComposer")</f>
         <v>http://dbpedia.org/ontology/musicComposer</v>
@@ -16590,7 +16535,7 @@
       </c>
       <c r="E759" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="760">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="760">
       <c r="A760" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/author")</f>
         <v>http://dbpedia.org/property/author</v>
@@ -16605,7 +16550,7 @@
       </c>
       <c r="E760" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="761">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="761">
       <c r="A761" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/recordedBy")</f>
         <v>http://dbpedia.org/property/recordedBy</v>
@@ -16620,7 +16565,7 @@
       </c>
       <c r="E761" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="762">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="762">
       <c r="A762" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writer(s)_")</f>
         <v>http://dbpedia.org/property/writer(s)_</v>
@@ -16635,7 +16580,7 @@
       </c>
       <c r="E762" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="763">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="763">
       <c r="A763" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/author")</f>
         <v>http://dbpedia.org/ontology/author</v>
@@ -16650,7 +16595,7 @@
       </c>
       <c r="E763" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="764">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="764">
       <c r="A764" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/musicBy")</f>
         <v>http://dbpedia.org/ontology/musicBy</v>
@@ -16665,7 +16610,7 @@
       </c>
       <c r="E764" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="765">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="765">
       <c r="A765" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/bandName")</f>
         <v>http://dbpedia.org/property/bandName</v>
@@ -16680,7 +16625,7 @@
       </c>
       <c r="E765" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="767">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="767">
       <c r="A767" s="2" t="n">
         <v>2125380335</v>
       </c>
@@ -16694,7 +16639,7 @@
       <c r="D767" s="4"/>
       <c r="E767" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="768">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="768">
       <c r="A768" s="6" t="s">
         <v>1428</v>
       </c>
@@ -16711,7 +16656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="769">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="769">
       <c r="A769" s="6" t="s">
         <v>1432</v>
       </c>
@@ -16728,7 +16673,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="770">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="770">
       <c r="A770" s="6" t="s">
         <v>1436</v>
       </c>
@@ -16745,7 +16690,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="771">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="771">
       <c r="A771" s="6" t="s">
         <v>709</v>
       </c>
@@ -16762,7 +16707,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="772">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="772">
       <c r="A772" s="6" t="s">
         <v>1442</v>
       </c>
@@ -16779,7 +16724,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="773">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="773">
       <c r="A773" s="6" t="s">
         <v>80</v>
       </c>
@@ -16796,7 +16741,7 @@
         <v>724</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="774">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="774">
       <c r="A774" s="6" t="s">
         <v>725</v>
       </c>
@@ -16813,7 +16758,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="775">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="775">
       <c r="A775" s="6" t="s">
         <v>1449</v>
       </c>
@@ -16830,7 +16775,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="776">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="776">
       <c r="A776" s="6" t="s">
         <v>1452</v>
       </c>
@@ -16847,7 +16792,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="777">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="777">
       <c r="A777" s="6" t="s">
         <v>1457</v>
       </c>
@@ -16864,7 +16809,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="778">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="778">
       <c r="A778" s="6" t="s">
         <v>1460</v>
       </c>
@@ -16881,7 +16826,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="779">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="779">
       <c r="A779" s="6" t="s">
         <v>1463</v>
       </c>
@@ -16898,7 +16843,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="780">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="780">
       <c r="A780" s="6" t="s">
         <v>751</v>
       </c>
@@ -16915,7 +16860,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="781">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="781">
       <c r="A781" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origin")</f>
         <v>http://dbpedia.org/property/origin</v>
@@ -16930,7 +16875,7 @@
       </c>
       <c r="E781" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="782">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="782">
       <c r="A782" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/country")</f>
         <v>http://dbpedia.org/property/country</v>
@@ -16945,7 +16890,7 @@
       </c>
       <c r="E782" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="783">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="783">
       <c r="A783" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/country")</f>
         <v>http://dbpedia.org/ontology/country</v>
@@ -16960,7 +16905,7 @@
       </c>
       <c r="E783" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="784">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="784">
       <c r="A784" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/culturalOrigins")</f>
         <v>http://dbpedia.org/property/culturalOrigins</v>
@@ -16975,7 +16920,7 @@
       </c>
       <c r="E784" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="785">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="785">
       <c r="A785" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ethnicity")</f>
         <v>http://dbpedia.org/property/ethnicity</v>
@@ -16990,7 +16935,7 @@
       </c>
       <c r="E785" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="786">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="786">
       <c r="A786" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/countries")</f>
         <v>http://dbpedia.org/property/countries</v>
@@ -17005,7 +16950,7 @@
       </c>
       <c r="E786" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="787">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="787">
       <c r="A787" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/origins")</f>
         <v>http://dbpedia.org/property/origins</v>
@@ -17020,7 +16965,7 @@
       </c>
       <c r="E787" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="789">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="789">
       <c r="A789" s="2" t="n">
         <v>1568257892</v>
       </c>
@@ -17034,7 +16979,7 @@
       <c r="D789" s="4"/>
       <c r="E789" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="790">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="790">
       <c r="A790" s="6" t="s">
         <v>1026</v>
       </c>
@@ -17051,7 +16996,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="791">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="791">
       <c r="A791" s="6" t="s">
         <v>1029</v>
       </c>
@@ -17062,7 +17007,7 @@
       <c r="D791" s="9"/>
       <c r="E791" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="792">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="792">
       <c r="A792" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/party")</f>
         <v>http://dbpedia.org/property/party</v>
@@ -17077,7 +17022,7 @@
       </c>
       <c r="E792" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="793">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="793">
       <c r="A793" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/party")</f>
         <v>http://dbpedia.org/ontology/party</v>
@@ -17092,7 +17037,7 @@
       </c>
       <c r="E793" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="794">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="794">
       <c r="A794" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/ideology")</f>
         <v>http://dbpedia.org/property/ideology</v>
@@ -17107,7 +17052,7 @@
       </c>
       <c r="E794" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="795">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="795">
       <c r="A795" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/partyName")</f>
         <v>http://dbpedia.org/property/partyName</v>
@@ -17122,7 +17067,7 @@
       </c>
       <c r="E795" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="796">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="796">
       <c r="A796" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/politicalParty")</f>
         <v>http://dbpedia.org/property/politicalParty</v>
@@ -17137,7 +17082,7 @@
       </c>
       <c r="E796" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="798">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="798">
       <c r="A798" s="2" t="n">
         <v>766188396</v>
       </c>
@@ -17151,7 +17096,7 @@
       <c r="D798" s="4"/>
       <c r="E798" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="799">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="799">
       <c r="A799" s="6" t="s">
         <v>1477</v>
       </c>
@@ -17168,7 +17113,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="800">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="800">
       <c r="A800" s="6" t="s">
         <v>1482</v>
       </c>
@@ -17185,7 +17130,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="801">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="801">
       <c r="A801" s="6" t="s">
         <v>1487</v>
       </c>
@@ -17202,7 +17147,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="802">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="802">
       <c r="A802" s="6" t="s">
         <v>1492</v>
       </c>
@@ -17219,7 +17164,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="803">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="803">
       <c r="A803" s="6" t="s">
         <v>1497</v>
       </c>
@@ -17236,7 +17181,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="804">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="804">
       <c r="A804" s="6" t="s">
         <v>1502</v>
       </c>
@@ -17253,7 +17198,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="805">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="805">
       <c r="A805" s="6" t="s">
         <v>1507</v>
       </c>
@@ -17270,7 +17215,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="806">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="806">
       <c r="A806" s="6" t="s">
         <v>1512</v>
       </c>
@@ -17281,7 +17226,7 @@
       <c r="D806" s="9"/>
       <c r="E806" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="807">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="807">
       <c r="A807" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writtenby")</f>
         <v>http://dbpedia.org/property/writtenby</v>
@@ -17296,7 +17241,7 @@
       </c>
       <c r="E807" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="808">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="808">
       <c r="A808" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/writer")</f>
         <v>http://dbpedia.org/property/writer</v>
@@ -17311,7 +17256,7 @@
       </c>
       <c r="E808" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="809">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="809">
       <c r="A809" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/creator")</f>
         <v>http://dbpedia.org/property/creator</v>
@@ -17326,7 +17271,7 @@
       </c>
       <c r="E809" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="810">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="810">
       <c r="A810" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/writer")</f>
         <v>http://dbpedia.org/ontology/writer</v>
@@ -17341,7 +17286,7 @@
       </c>
       <c r="E810" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="811">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="811">
       <c r="A811" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/creator")</f>
         <v>http://dbpedia.org/ontology/creator</v>
@@ -17356,7 +17301,7 @@
       </c>
       <c r="E811" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="813">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="813">
       <c r="A813" s="2" t="n">
         <v>2043956000</v>
       </c>
@@ -17370,7 +17315,7 @@
       <c r="D813" s="4"/>
       <c r="E813" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="814">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="814">
       <c r="A814" s="6" t="n">
         <v>1</v>
       </c>
@@ -17387,7 +17332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="815">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="815">
       <c r="A815" s="6" t="n">
         <v>14</v>
       </c>
@@ -17404,7 +17349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="816">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="816">
       <c r="A816" s="6" t="n">
         <v>19</v>
       </c>
@@ -17421,7 +17366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="817">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="817">
       <c r="A817" s="6" t="n">
         <v>23</v>
       </c>
@@ -17438,7 +17383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="818">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="818">
       <c r="A818" s="6" t="n">
         <v>6</v>
       </c>
@@ -17453,7 +17398,7 @@
       </c>
       <c r="E818" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="819">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="819">
       <c r="A819" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/seriesep")</f>
         <v>http://dbpedia.org/property/seriesep</v>
@@ -17468,7 +17413,7 @@
       </c>
       <c r="E819" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="820">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="820">
       <c r="A820" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/numberOfEpisodes")</f>
         <v>http://dbpedia.org/ontology/numberOfEpisodes</v>
@@ -17483,7 +17428,7 @@
       </c>
       <c r="E820" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="821">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="821">
       <c r="A821" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numEpisodes")</f>
         <v>http://dbpedia.org/property/numEpisodes</v>
@@ -17498,7 +17443,7 @@
       </c>
       <c r="E821" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="822">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="822">
       <c r="A822" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/numberOfSeasons")</f>
         <v>http://dbpedia.org/ontology/numberOfSeasons</v>
@@ -17513,7 +17458,7 @@
       </c>
       <c r="E822" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="823">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="823">
       <c r="A823" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodenumber")</f>
         <v>http://dbpedia.org/property/episodenumber</v>
@@ -17528,7 +17473,7 @@
       </c>
       <c r="E823" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="824">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="824">
       <c r="A824" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episode")</f>
         <v>http://dbpedia.org/property/episode</v>
@@ -17543,7 +17488,7 @@
       </c>
       <c r="E824" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="825">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="825">
       <c r="A825" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodes")</f>
         <v>http://dbpedia.org/property/episodes</v>
@@ -17558,7 +17503,7 @@
       </c>
       <c r="E825" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="826">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="826">
       <c r="A826" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/episodeNumber")</f>
         <v>http://dbpedia.org/ontology/episodeNumber</v>
@@ -17573,7 +17518,7 @@
       </c>
       <c r="E826" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="827">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="827">
       <c r="A827" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numSeasons")</f>
         <v>http://dbpedia.org/property/numSeasons</v>
@@ -17588,7 +17533,7 @@
       </c>
       <c r="E827" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="828">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="828">
       <c r="A828" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodeNo")</f>
         <v>http://dbpedia.org/property/episodeNo</v>
@@ -17603,7 +17548,7 @@
       </c>
       <c r="E828" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="829">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="829">
       <c r="A829" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/seasonNumber")</f>
         <v>http://dbpedia.org/ontology/seasonNumber</v>
@@ -17618,7 +17563,7 @@
       </c>
       <c r="E829" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="830">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="830">
       <c r="A830" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberEpisodes")</f>
         <v>http://dbpedia.org/property/numberEpisodes</v>
@@ -17633,7 +17578,7 @@
       </c>
       <c r="E830" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="831">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="831">
       <c r="A831" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numSeason")</f>
         <v>http://dbpedia.org/property/numSeason</v>
@@ -17648,7 +17593,7 @@
       </c>
       <c r="E831" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="832">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="832">
       <c r="A832" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberOfEpisodes")</f>
         <v>http://dbpedia.org/property/numberOfEpisodes</v>
@@ -17663,7 +17608,7 @@
       </c>
       <c r="E832" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="833">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="833">
       <c r="A833" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/no.OfEpisodes")</f>
         <v>http://dbpedia.org/property/no.OfEpisodes</v>
@@ -17678,7 +17623,7 @@
       </c>
       <c r="E833" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="834">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="834">
       <c r="A834" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/no.OfSeason")</f>
         <v>http://dbpedia.org/property/no.OfSeason</v>
@@ -17693,7 +17638,7 @@
       </c>
       <c r="E834" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="835">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="835">
       <c r="A835" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numEpisode")</f>
         <v>http://dbpedia.org/property/numEpisode</v>
@@ -17708,7 +17653,7 @@
       </c>
       <c r="E835" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="836">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="836">
       <c r="A836" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberOfSeasons")</f>
         <v>http://dbpedia.org/property/numberOfSeasons</v>
@@ -17723,7 +17668,7 @@
       </c>
       <c r="E836" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="838">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="838">
       <c r="A838" s="2" t="n">
         <v>1796458291</v>
       </c>
@@ -17737,7 +17682,7 @@
       <c r="D838" s="4"/>
       <c r="E838" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="839">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="839">
       <c r="A839" s="6" t="s">
         <v>1531</v>
       </c>
@@ -17754,7 +17699,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="840">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="840">
       <c r="A840" s="6" t="s">
         <v>1536</v>
       </c>
@@ -17771,7 +17716,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="841">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="841">
       <c r="A841" s="6" t="s">
         <v>1541</v>
       </c>
@@ -17788,7 +17733,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="842">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="842">
       <c r="A842" s="6" t="s">
         <v>1546</v>
       </c>
@@ -17805,7 +17750,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="843">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="843">
       <c r="A843" s="6" t="s">
         <v>1551</v>
       </c>
@@ -17822,7 +17767,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="844">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="844">
       <c r="A844" s="6" t="s">
         <v>1556</v>
       </c>
@@ -17839,7 +17784,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="845">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="845">
       <c r="A845" s="6" t="s">
         <v>1561</v>
       </c>
@@ -17856,7 +17801,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="846">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="846">
       <c r="A846" s="6" t="s">
         <v>1566</v>
       </c>
@@ -17873,7 +17818,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="847">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="847">
       <c r="A847" s="6" t="s">
         <v>1571</v>
       </c>
@@ -17890,7 +17835,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="848">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="848">
       <c r="A848" s="6" t="s">
         <v>1576</v>
       </c>
@@ -17907,7 +17852,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="849">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="849">
       <c r="A849" s="6" t="s">
         <v>1581</v>
       </c>
@@ -17924,7 +17869,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="850">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="850">
       <c r="A850" s="6" t="s">
         <v>1586</v>
       </c>
@@ -17941,7 +17886,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="851">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="851">
       <c r="A851" s="6" t="s">
         <v>1591</v>
       </c>
@@ -17958,7 +17903,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="852">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="852">
       <c r="A852" s="6" t="s">
         <v>1596</v>
       </c>
@@ -17975,7 +17920,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="853">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="853">
       <c r="A853" s="6" t="s">
         <v>1601</v>
       </c>
@@ -17992,7 +17937,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="854">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="854">
       <c r="A854" s="6" t="s">
         <v>1606</v>
       </c>
@@ -18009,7 +17954,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="855">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="855">
       <c r="A855" s="6" t="s">
         <v>1611</v>
       </c>
@@ -18026,7 +17971,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="856">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="856">
       <c r="A856" s="6" t="s">
         <v>1616</v>
       </c>
@@ -18039,7 +17984,7 @@
       <c r="D856" s="9"/>
       <c r="E856" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="857">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="857">
       <c r="A857" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/title")</f>
         <v>http://dbpedia.org/property/title</v>
@@ -18054,7 +17999,7 @@
       </c>
       <c r="E857" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="858">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="858">
       <c r="A858" s="11" t="str">
         <f aca="false">HYPERLINK("http://xmlns.com/foaf/0.1/name")</f>
         <v>http://xmlns.com/foaf/0.1/name</v>
@@ -18069,7 +18014,7 @@
       </c>
       <c r="E858" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="859">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="859">
       <c r="A859" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/showName")</f>
         <v>http://dbpedia.org/property/showName</v>
@@ -18084,7 +18029,7 @@
       </c>
       <c r="E859" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="860">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="860">
       <c r="A860" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/name")</f>
         <v>http://dbpedia.org/property/name</v>
@@ -18099,7 +18044,7 @@
       </c>
       <c r="E860" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="861">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="861">
       <c r="A861" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/englishtitle")</f>
         <v>http://dbpedia.org/property/englishtitle</v>
@@ -18114,7 +18059,7 @@
       </c>
       <c r="E861" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="862">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="862">
       <c r="A862" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodetitle")</f>
         <v>http://dbpedia.org/property/episodetitle</v>
@@ -18129,7 +18074,7 @@
       </c>
       <c r="E862" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="863">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="863">
       <c r="A863" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episode")</f>
         <v>http://dbpedia.org/property/episode</v>
@@ -18144,7 +18089,7 @@
       </c>
       <c r="E863" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="865">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="865">
       <c r="A865" s="2" t="n">
         <v>1151263973</v>
       </c>
@@ -18158,7 +18103,7 @@
       <c r="D865" s="4"/>
       <c r="E865" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="866">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="866">
       <c r="A866" s="6" t="s">
         <v>1623</v>
       </c>
@@ -18173,7 +18118,7 @@
       </c>
       <c r="E866" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="867">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="867">
       <c r="A867" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/director")</f>
         <v>http://dbpedia.org/property/director</v>
@@ -18188,7 +18133,7 @@
       </c>
       <c r="E867" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="868">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="868">
       <c r="A868" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/directedby")</f>
         <v>http://dbpedia.org/property/directedby</v>
@@ -18203,7 +18148,7 @@
       </c>
       <c r="E868" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="869">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="869">
       <c r="A869" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/director")</f>
         <v>http://dbpedia.org/ontology/director</v>
@@ -18218,7 +18163,7 @@
       </c>
       <c r="E869" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="870">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="870">
       <c r="A870" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/creator")</f>
         <v>http://dbpedia.org/ontology/creator</v>
@@ -18233,7 +18178,7 @@
       </c>
       <c r="E870" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="871">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="871">
       <c r="A871" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/creator")</f>
         <v>http://dbpedia.org/property/creator</v>
@@ -18248,7 +18193,7 @@
       </c>
       <c r="E871" s="17"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="873">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="873">
       <c r="A873" s="2" t="n">
         <v>1634952948</v>
       </c>
@@ -18262,7 +18207,7 @@
       <c r="D873" s="4"/>
       <c r="E873" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="874">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="874">
       <c r="A874" s="6" t="n">
         <v>1</v>
       </c>
@@ -18279,7 +18224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="875">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="875">
       <c r="A875" s="6" t="n">
         <v>6</v>
       </c>
@@ -18296,7 +18241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="876">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="876">
       <c r="A876" s="6" t="n">
         <v>11</v>
       </c>
@@ -18313,7 +18258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="877">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="877">
       <c r="A877" s="6" t="n">
         <v>16</v>
       </c>
@@ -18330,7 +18275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="878">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="878">
       <c r="A878" s="6" t="n">
         <v>21</v>
       </c>
@@ -18347,7 +18292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="879">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="879">
       <c r="A879" s="6" t="n">
         <v>26</v>
       </c>
@@ -18364,7 +18309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="880">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="880">
       <c r="A880" s="6" t="n">
         <v>31</v>
       </c>
@@ -18381,7 +18326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="881">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="881">
       <c r="A881" s="6" t="n">
         <v>36</v>
       </c>
@@ -18398,7 +18343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="882">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="882">
       <c r="A882" s="6" t="n">
         <v>41</v>
       </c>
@@ -18415,7 +18360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="883">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="883">
       <c r="A883" s="6" t="n">
         <v>46</v>
       </c>
@@ -18432,7 +18377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="884">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="884">
       <c r="A884" s="6" t="n">
         <v>51</v>
       </c>
@@ -18449,7 +18394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="885">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="885">
       <c r="A885" s="6" t="n">
         <v>56</v>
       </c>
@@ -18466,7 +18411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="886">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="886">
       <c r="A886" s="6" t="n">
         <v>61</v>
       </c>
@@ -18483,7 +18428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="887">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="887">
       <c r="A887" s="6" t="n">
         <v>66</v>
       </c>
@@ -18500,7 +18445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="888">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="888">
       <c r="A888" s="6" t="n">
         <v>71</v>
       </c>
@@ -18517,7 +18462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="889">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="889">
       <c r="A889" s="6" t="n">
         <v>76</v>
       </c>
@@ -18534,7 +18479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="890">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="890">
       <c r="A890" s="6" t="n">
         <v>81</v>
       </c>
@@ -18551,7 +18496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="891">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="891">
       <c r="A891" s="6" t="n">
         <v>86</v>
       </c>
@@ -18564,7 +18509,7 @@
       <c r="D891" s="9"/>
       <c r="E891" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="892">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="892">
       <c r="A892" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/seriesep")</f>
         <v>http://dbpedia.org/property/seriesep</v>
@@ -18579,7 +18524,7 @@
       </c>
       <c r="E892" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="893">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="893">
       <c r="A893" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/number")</f>
         <v>http://dbpedia.org/property/number</v>
@@ -18594,7 +18539,7 @@
       </c>
       <c r="E893" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="894">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="894">
       <c r="A894" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/numberOfEpisodes")</f>
         <v>http://dbpedia.org/ontology/numberOfEpisodes</v>
@@ -18609,7 +18554,7 @@
       </c>
       <c r="E894" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="895">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="895">
       <c r="A895" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numEpisodes")</f>
         <v>http://dbpedia.org/property/numEpisodes</v>
@@ -18624,7 +18569,7 @@
       </c>
       <c r="E895" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="896">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="896">
       <c r="A896" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodenumber")</f>
         <v>http://dbpedia.org/property/episodenumber</v>
@@ -18639,7 +18584,7 @@
       </c>
       <c r="E896" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="897">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="897">
       <c r="A897" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episode")</f>
         <v>http://dbpedia.org/property/episode</v>
@@ -18654,7 +18599,7 @@
       </c>
       <c r="E897" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="898">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="898">
       <c r="A898" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/episodeNumber")</f>
         <v>http://dbpedia.org/ontology/episodeNumber</v>
@@ -18669,7 +18614,7 @@
       </c>
       <c r="E898" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="899">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="899">
       <c r="A899" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodeNo")</f>
         <v>http://dbpedia.org/property/episodeNo</v>
@@ -18684,7 +18629,7 @@
       </c>
       <c r="E899" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="900">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="900">
       <c r="A900" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/episodes")</f>
         <v>http://dbpedia.org/property/episodes</v>
@@ -18699,7 +18644,7 @@
       </c>
       <c r="E900" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="901">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="901">
       <c r="A901" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numSeasons")</f>
         <v>http://dbpedia.org/property/numSeasons</v>
@@ -18714,7 +18659,7 @@
       </c>
       <c r="E901" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="902">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="902">
       <c r="A902" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/ontology/numberOfSeasons")</f>
         <v>http://dbpedia.org/ontology/numberOfSeasons</v>
@@ -18729,7 +18674,7 @@
       </c>
       <c r="E902" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="903">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="903">
       <c r="A903" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberEpisodes")</f>
         <v>http://dbpedia.org/property/numberEpisodes</v>
@@ -18744,7 +18689,7 @@
       </c>
       <c r="E903" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="904">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="904">
       <c r="A904" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberinseries")</f>
         <v>http://dbpedia.org/property/numberinseries</v>
@@ -18759,7 +18704,7 @@
       </c>
       <c r="E904" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="905">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="905">
       <c r="A905" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numberOfEpisodes")</f>
         <v>http://dbpedia.org/property/numberOfEpisodes</v>
@@ -18774,7 +18719,7 @@
       </c>
       <c r="E905" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="906">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="906">
       <c r="A906" s="11" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/no.OfEpisodes")</f>
         <v>http://dbpedia.org/property/no.OfEpisodes</v>
@@ -18789,7 +18734,7 @@
       </c>
       <c r="E906" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.9" outlineLevel="0" r="907">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.9" outlineLevel="0" r="907">
       <c r="A907" s="14" t="str">
         <f aca="false">HYPERLINK("http://dbpedia.org/property/numSeason")</f>
         <v>http://dbpedia.org/property/numSeason</v>
